--- a/src/attributions/attributions_saliency_traj_82.xlsx
+++ b/src/attributions/attributions_saliency_traj_82.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00045359181240201</v>
+        <v>0.0007870797999203205</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001942041853908449</v>
+        <v>0.07945197820663452</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003544908948242664</v>
+        <v>0.001816177624277771</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0003450061194598675</v>
+        <v>0.02101907879114151</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0009316124487668276</v>
+        <v>0.00752377649769187</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005285415099933743</v>
+        <v>0.03410648927092552</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0005039592506363988</v>
+        <v>0.001625465229153633</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001917614135891199</v>
+        <v>0.04312610253691673</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001264028600417078</v>
+        <v>0.06370841711759567</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001192725903820246</v>
+        <v>0.01381969824433327</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001180864521302283</v>
+        <v>0.06910479068756104</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003103850176557899</v>
+        <v>0.00650339899584651</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001464348752051592</v>
+        <v>0.0382131040096283</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001007503364235163</v>
+        <v>0.002625532448291779</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0007870835834182799</v>
+        <v>0.03071236796677113</v>
       </c>
       <c r="P2" t="n">
-        <v>2.180673618568107e-05</v>
+        <v>0.006982441991567612</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.002519526286050677</v>
+        <v>0.02382458932697773</v>
       </c>
       <c r="R2" t="n">
-        <v>0.002100746612995863</v>
+        <v>0.06172576546669006</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0001260787976207212</v>
+        <v>0.004396730568259954</v>
       </c>
       <c r="T2" t="n">
-        <v>0.00171554391272366</v>
+        <v>0.0006485451012849808</v>
       </c>
       <c r="U2" t="n">
-        <v>7.041960634524003e-05</v>
+        <v>0.008549630641937256</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0001059914502548054</v>
+        <v>0.006931784562766552</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0006033529643900692</v>
+        <v>0.004431861452758312</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0005193604156374931</v>
+        <v>0.01863704994320869</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.000408985506510362</v>
+        <v>0.002452295506373048</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0006092442781664431</v>
+        <v>0.002081108745187521</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0002773344749584794</v>
+        <v>0.002014721743762493</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.321135980309919e-05</v>
+        <v>0.01324731018394232</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0002074934891425073</v>
+        <v>0.005728867836296558</v>
       </c>
       <c r="AD2" t="n">
-        <v>4.880348569713533e-05</v>
+        <v>0.0309266708791256</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0002771135186776519</v>
+        <v>0.00536035792902112</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0006579593755304813</v>
+        <v>0.005297273397445679</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.909739699447528e-05</v>
+        <v>0.02003846131265163</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0002929611946456134</v>
+        <v>0.009560331702232361</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0006228603888303041</v>
+        <v>0.01191430352628231</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.001433381927199662</v>
+        <v>0.004589367657899857</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0001803624036256224</v>
+        <v>0.006944974884390831</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0004759900330100209</v>
+        <v>0.006655954290181398</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0008210013620555401</v>
+        <v>0.002684170147404075</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0002404996048426256</v>
+        <v>0.004709030501544476</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.000760962488129735</v>
+        <v>0.0133168138563633</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.0001820830657379702</v>
+        <v>0.006625618319958448</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9.963748743757606e-05</v>
+        <v>0.005084176547825336</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0002934282238129526</v>
+        <v>0.00262959604151547</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0004085266555193812</v>
+        <v>0.007899783551692963</v>
       </c>
       <c r="AT2" t="n">
-        <v>6.693231989629567e-05</v>
+        <v>0.002724314574152231</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0004896550672128797</v>
+        <v>0.07390778511762619</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0018529137596488</v>
+        <v>0.01761616766452789</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0009478916181251407</v>
+        <v>0.005103743635118008</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0006707654683850706</v>
+        <v>0.04860158264636993</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0006359723047353327</v>
+        <v>0.01032338850200176</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0002457044320181012</v>
+        <v>0.01546339876949787</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.001099378103390336</v>
+        <v>0.01029200945049524</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0002267955132992938</v>
+        <v>0.01076341047883034</v>
       </c>
       <c r="BC2" t="n">
-        <v>2.518701512599364e-05</v>
+        <v>0.009415148757398129</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0005881122197024524</v>
+        <v>0.002718744799494743</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.0008566823089495301</v>
+        <v>0.00639165798202157</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.0003299336822237819</v>
+        <v>0.00128691759891808</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0007748061325401068</v>
+        <v>0.004431236069649458</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0004417433810885996</v>
+        <v>0.04500423744320869</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0005963119911029935</v>
+        <v>0.002305792877450585</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0009604195365682244</v>
+        <v>0.01729730516672134</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.000117971510917414</v>
+        <v>0.05810639634728432</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0001571090106153861</v>
+        <v>0.009526330977678299</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0004294328682590276</v>
+        <v>0.002532987389713526</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0007246477180160582</v>
+        <v>0.00588874239474535</v>
       </c>
       <c r="BO2" t="n">
-        <v>8.855837222654372e-05</v>
+        <v>6.603053770959377e-05</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.000345681793987751</v>
+        <v>0.05226600542664528</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0005773520097136497</v>
+        <v>0.01400854997336864</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0001075345135177486</v>
+        <v>0.01391220651566982</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0007962455856613815</v>
+        <v>0.001142365857958794</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0008564055897295475</v>
+        <v>0.0256335660815239</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0003701859968714416</v>
+        <v>0.003413818776607513</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0001086040720110759</v>
+        <v>0.04138079285621643</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.00151048181578517</v>
+        <v>0.01141073368489742</v>
       </c>
       <c r="BX2" t="n">
-        <v>7.476977771148086e-05</v>
+        <v>0.007107404060661793</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0009119195747189224</v>
+        <v>0.01278589759021997</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0003152660501655191</v>
+        <v>0.008141910657286644</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0002976252289954573</v>
+        <v>0.004675230011343956</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0005624259356409311</v>
+        <v>0.006927859503775835</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0005715168663300574</v>
+        <v>0.005239014513790607</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0003606652899179608</v>
+        <v>0.0003182881628163159</v>
       </c>
       <c r="CE2" t="n">
-        <v>4.694909148383886e-05</v>
+        <v>0.01141121983528137</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0006050360389053822</v>
+        <v>0.005919243209064007</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0001359009474981576</v>
+        <v>5.190318915992975e-06</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0001225919841090217</v>
+        <v>0.004739418160170317</v>
       </c>
       <c r="CI2" t="n">
-        <v>7.264223677339032e-05</v>
+        <v>0.003431866411119699</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0002127204788848758</v>
+        <v>0.004257461987435818</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0003738227824214846</v>
+        <v>0.005243686493486166</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0002863125992007554</v>
+        <v>0.01746465265750885</v>
       </c>
       <c r="CM2" t="n">
-        <v>4.812557017430663e-05</v>
+        <v>0.02006684429943562</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0004303217574488372</v>
+        <v>0.01580537110567093</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.00015116180293262</v>
+        <v>0.0005488084862008691</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.000633294228464365</v>
+        <v>0.02132685296237469</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0008523844298906624</v>
+        <v>0.03007189370691776</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0001488931302446872</v>
+        <v>0.01650088280439377</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0004201492702122778</v>
+        <v>0.01050994079560041</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0007673855870962143</v>
+        <v>0.03418992459774017</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.001152022508904338</v>
+        <v>0.01699780486524105</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0005217171274125576</v>
+        <v>0.0002095763920806348</v>
       </c>
       <c r="CW2" t="n">
-        <v>2.490128463250585e-05</v>
+        <v>0.01263185311108828</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0006600384367629886</v>
+        <v>0.003506876062601805</v>
       </c>
       <c r="CY2" t="n">
-        <v>8.011611498659477e-05</v>
+        <v>0.001565180718898773</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.000111133442260325</v>
+        <v>0.0005457195802591741</v>
       </c>
       <c r="DA2" t="n">
-        <v>5.315820817486383e-05</v>
+        <v>0.0009584017097949982</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0001279341959161684</v>
+        <v>0.004218022339046001</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.000223635375732556</v>
+        <v>0.003321574535220861</v>
       </c>
       <c r="DD2" t="n">
-        <v>7.936811016406864e-05</v>
+        <v>0.01331148855388165</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0009332743939012289</v>
+        <v>0.005934674292802811</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0005211493698880076</v>
+        <v>0.007792073301970959</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0007763873436488211</v>
+        <v>0.01212658546864986</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.001539830234833062</v>
+        <v>0.01876669377088547</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0002259505417896435</v>
+        <v>0.004609007854014635</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0009351137559860945</v>
+        <v>0.0004462830256670713</v>
       </c>
       <c r="DK2" t="n">
-        <v>2.785195829346776e-05</v>
+        <v>0.005752028897404671</v>
       </c>
       <c r="DL2" t="n">
-        <v>3.545280560501851e-05</v>
+        <v>0.03497343510389328</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0003092502593062818</v>
+        <v>0.002502401359379292</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0001239379344042391</v>
+        <v>0.002370947506278753</v>
       </c>
       <c r="DO2" t="n">
-        <v>6.201210635481402e-05</v>
+        <v>0.004654874093830585</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0004613533383235335</v>
+        <v>0.004324001260101795</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0001919768546940759</v>
+        <v>0.006285829469561577</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0003707871655933559</v>
+        <v>0.01105852611362934</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0004960434744134545</v>
+        <v>0.00291124265640974</v>
       </c>
       <c r="DT2" t="n">
-        <v>6.103068881202489e-05</v>
+        <v>0.009163212962448597</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0002961943682748824</v>
+        <v>0.0009974923450499773</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.0006021574954502285</v>
+        <v>0.01864154450595379</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0003696190833579749</v>
+        <v>0.0005941077833995223</v>
       </c>
       <c r="DX2" t="n">
-        <v>9.728125587571412e-05</v>
+        <v>0.02274872176349163</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0002584173926152289</v>
+        <v>0.007970775477588177</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0001765852066455409</v>
+        <v>0.003484120825305581</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0003436645492911339</v>
+        <v>0.00288950907997787</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.0001711836812319234</v>
+        <v>0.01740150153636932</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.000464884185930714</v>
+        <v>0.004888248629868031</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0007275998941622674</v>
+        <v>0.01443164609372616</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0001142628752859309</v>
+        <v>0.004671518690884113</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0004237843095324934</v>
+        <v>0.003214484779164195</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0002858420484699309</v>
+        <v>0.01445772871375084</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0002640477032400668</v>
+        <v>0.009137634187936783</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.0001325516786891967</v>
+        <v>0.007932958193123341</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0008981961291283369</v>
+        <v>0.007277189288288355</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0001109071818063967</v>
+        <v>0.004524600226432085</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0001126281276810914</v>
+        <v>0.008337803184986115</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0006173654110170901</v>
+        <v>0.00320660462602973</v>
       </c>
       <c r="EN2" t="n">
-        <v>3.697138890856877e-05</v>
+        <v>0.01796742714941502</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0003891984233632684</v>
+        <v>0.003597622038796544</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0001642975257709622</v>
+        <v>0.007266150321811438</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0002965823514387012</v>
+        <v>0.008605857379734516</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0006181075004860759</v>
+        <v>0.004987467546015978</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0001524843391962349</v>
+        <v>0.01294988207519054</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.0003323669952806085</v>
+        <v>0.01608450710773468</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0002088789769914001</v>
+        <v>0.007570783142000437</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0005312039866112173</v>
+        <v>0.004982460290193558</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0006742545519955456</v>
+        <v>0.008088963106274605</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0002467244921717793</v>
+        <v>0.001967349089682102</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0001204021100420505</v>
+        <v>0.01503351517021656</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0006169979460537434</v>
+        <v>0.003308847779408097</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.000188820791663602</v>
+        <v>0.002724714344367385</v>
       </c>
       <c r="FB2" t="n">
-        <v>9.284043335355818e-05</v>
+        <v>0.0008527084719389677</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.0001914248568937182</v>
+        <v>0.003781327744945884</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.0002257273881696165</v>
+        <v>0.005095019470900297</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.000379934732336551</v>
+        <v>0.002956725424155593</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.0001462536747567356</v>
+        <v>0.01397624518722296</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0007510702707804739</v>
+        <v>0.00419582100585103</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0003973965358454734</v>
+        <v>0.006809331476688385</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.000792092876508832</v>
+        <v>0.00458927359431982</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.0001628655300009996</v>
+        <v>0.00759844807907939</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0004871029523201287</v>
+        <v>0.01962966285645962</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.0003686005366034806</v>
+        <v>0.002934133168309927</v>
       </c>
       <c r="FM2" t="n">
-        <v>7.277647091541439e-05</v>
+        <v>0.0005209539085626602</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0003891724045388401</v>
+        <v>0.006120460573583841</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0004923671367578208</v>
+        <v>0.0004000640765298158</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.001843164674937725</v>
+        <v>0.00550962844863534</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0003929906233679503</v>
+        <v>0.01153937727212906</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.001148450188338757</v>
+        <v>0.01388696394860744</v>
       </c>
       <c r="FS2" t="n">
-        <v>5.696804873878136e-05</v>
+        <v>0.006121932063251734</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0001850370172178373</v>
+        <v>0.03138807788491249</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0001089763682102785</v>
+        <v>0.01204935926944017</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.0004802876501344144</v>
+        <v>0.02290945500135422</v>
       </c>
       <c r="FW2" t="n">
-        <v>4.950635411660187e-05</v>
+        <v>0.007860502228140831</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0007653110660612583</v>
+        <v>0.003382899565622211</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.0004845811054110527</v>
+        <v>0.01133344043046236</v>
       </c>
       <c r="FZ2" t="n">
-        <v>4.434781294548884e-05</v>
+        <v>0.00816990714520216</v>
       </c>
       <c r="GA2" t="n">
-        <v>9.064082405529916e-06</v>
+        <v>0.00828972365707159</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.0008939395193010569</v>
+        <v>0.01115560717880726</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.0002993374073412269</v>
+        <v>0.007597163319587708</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0005615965346805751</v>
+        <v>0.01504544448107481</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.0001958446518983692</v>
+        <v>0.01349637657403946</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0006673934403806925</v>
+        <v>0.006983650848269463</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.0001962482638191432</v>
+        <v>0.0002200508606620133</v>
       </c>
     </row>
     <row r="3">
@@ -2711,571 +2711,571 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.018863620236516</v>
+        <v>0.001338416012004018</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01535253785550594</v>
+        <v>0.02015111409127712</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1265411674976349</v>
+        <v>0.002340695820748806</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04822718352079391</v>
+        <v>0.004192455671727657</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03774344921112061</v>
+        <v>0.003983902279287577</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02175158075988293</v>
+        <v>7.871631532907486e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002772788982838392</v>
+        <v>0.004022825509309769</v>
       </c>
       <c r="H5" t="n">
-        <v>0.006185729056596756</v>
+        <v>0.001259326352737844</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03061250224709511</v>
+        <v>0.003862274577841163</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01941560208797455</v>
+        <v>0.004772523418068886</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002940023085102439</v>
+        <v>0.01655835658311844</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1261311173439026</v>
+        <v>0.002962736878544092</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05205562338232994</v>
+        <v>0.008382877334952354</v>
       </c>
       <c r="N5" t="n">
-        <v>0.006111267022788525</v>
+        <v>0.006786150857806206</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0006387996836565435</v>
+        <v>0.004773862194269896</v>
       </c>
       <c r="P5" t="n">
-        <v>0.006008452735841274</v>
+        <v>0.003464877838268876</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01917784661054611</v>
+        <v>0.0005764093366451561</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03737273067235947</v>
+        <v>0.004002577625215054</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01242710091173649</v>
+        <v>0.002423160243779421</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01044481340795755</v>
+        <v>0.004097024444490671</v>
       </c>
       <c r="U5" t="n">
-        <v>0.003526735585182905</v>
+        <v>0.001309769344516098</v>
       </c>
       <c r="V5" t="n">
-        <v>0.002146396320313215</v>
+        <v>0.001511992886662483</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02535298652946949</v>
+        <v>0.003989883232861757</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001541110104881227</v>
+        <v>0.003308197017759085</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01011852268129587</v>
+        <v>0.000158715556608513</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.009719881229102612</v>
+        <v>0.001410227036103606</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.006388300098478794</v>
+        <v>0.001558179152198136</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.009060737676918507</v>
+        <v>0.002538569970056415</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.01072247419506311</v>
+        <v>0.004222616087645292</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0072769895195961</v>
+        <v>0.002839731518179178</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.01507056690752506</v>
+        <v>0.0009950164239853621</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.01633546687662601</v>
+        <v>0.0002555376850068569</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.005149859469383955</v>
+        <v>0.0009876111289486289</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.0007396158180199564</v>
+        <v>0.0009777072118595243</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.01155535969883204</v>
+        <v>0.003797874320298433</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.02209004014730453</v>
+        <v>5.553716255235486e-05</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.002391793765127659</v>
+        <v>0.00206700898706913</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.001336001791059971</v>
+        <v>0.002215110464021564</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.02427868358790874</v>
+        <v>0.0002965164312627167</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.001826529856771231</v>
+        <v>0.0009567193919792771</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.008988203480839729</v>
+        <v>0.000612279400229454</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.0170611534267664</v>
+        <v>0.0006068804068490863</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.004137411713600159</v>
+        <v>0.0004840529581997544</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.001518620876595378</v>
+        <v>0.0007035122253000736</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.001546631334349513</v>
+        <v>0.0008216395508497953</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.01348151639103889</v>
+        <v>0.00244499952532351</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.01629599183797836</v>
+        <v>0.01268716622143984</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.06200675666332245</v>
+        <v>0.002531390637159348</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.007657934445887804</v>
+        <v>0.003469206858426332</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.006280898116528988</v>
+        <v>0.001607731101103127</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.01654411107301712</v>
+        <v>0.0008714552968740463</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.01555483508855104</v>
+        <v>0.005315791815519333</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.02344789169728756</v>
+        <v>0.0006128882523626089</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.02026941068470478</v>
+        <v>1.448136754333973e-05</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.001823051832616329</v>
+        <v>0.0002519288100302219</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.005268357694149017</v>
+        <v>0.00602182699367404</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.03438439220190048</v>
+        <v>0.004844502545893192</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.02475349605083466</v>
+        <v>0.002661624224856496</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.02600074745714664</v>
+        <v>0.004581963643431664</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.01675494201481342</v>
+        <v>0.0006331238546408713</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.008810986764729023</v>
+        <v>0.00208009104244411</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.01056062988936901</v>
+        <v>0.0002717554452829063</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.01879865489900112</v>
+        <v>8.679274469614029e-05</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.003518823068588972</v>
+        <v>0.0005435751518234611</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.002277267398312688</v>
+        <v>0.0006478347349911928</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.0285640861839056</v>
+        <v>0.001908713253214955</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.002965504303574562</v>
+        <v>0.001265862956643105</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.02243638783693314</v>
+        <v>0.004833371378481388</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.001727888593450189</v>
+        <v>0.001211572089232504</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.009307008236646652</v>
+        <v>0.002042348496615887</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.004724797792732716</v>
+        <v>0.00426856055855751</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.007960610091686249</v>
+        <v>0.001395775354467332</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.003467961214482784</v>
+        <v>0.0004045518580824137</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.01141870394349098</v>
+        <v>0.006019553635269403</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.03844983875751495</v>
+        <v>0.002562405541539192</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.004002152010798454</v>
+        <v>0.001604358199983835</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.004639221355319023</v>
+        <v>0.00111519789788872</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.02283406257629395</v>
+        <v>0.0009379579569213092</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.0161387138068676</v>
+        <v>0.002007908886298537</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.008967462927103043</v>
+        <v>0.002326647751033306</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.001650481834076345</v>
+        <v>5.383772077038884e-05</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.004111818037927151</v>
+        <v>0.0004463442601263523</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.01522203627973795</v>
+        <v>0.004009669180959463</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.02311556600034237</v>
+        <v>0.00128258834592998</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.009048613719642162</v>
+        <v>0.0003005967009812593</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.00302889896556735</v>
+        <v>5.176538252271712e-05</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.009078429080545902</v>
+        <v>1.14504509838298e-05</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.008941684849560261</v>
+        <v>0.001109841978177428</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.004641433712095022</v>
+        <v>0.0004528550780378282</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.005876741837710142</v>
+        <v>0.0007669529295526445</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.0005912806373089552</v>
+        <v>0.004421570803970098</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.01408321782946587</v>
+        <v>0.003587394021451473</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.005987601820379496</v>
+        <v>0.000434586894698441</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.003953107167035341</v>
+        <v>0.005372974555939436</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.002245114650577307</v>
+        <v>0.00431086728349328</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.004074384458363056</v>
+        <v>0.0006824552547186613</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.002962224651128054</v>
+        <v>0.0003811357310041785</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.005021575372666121</v>
+        <v>0.0004557626089081168</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.0172306876629591</v>
+        <v>0.001332552288658917</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.004052624572068453</v>
+        <v>0.0005985685274936259</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.01128186471760273</v>
+        <v>0.003661823691800237</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.02443144842982292</v>
+        <v>0.001605923054739833</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.006820152048021555</v>
+        <v>0.00104118010494858</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.006713528651744127</v>
+        <v>0.0009767492301762104</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.007084019016474485</v>
+        <v>0.0001958962675416842</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.007788405753672123</v>
+        <v>0.001425747759640217</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.003923838026821613</v>
+        <v>0.0002086024906020612</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.006370208691805601</v>
+        <v>0.001114586135372519</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.0007530649891123176</v>
+        <v>0.00305506750009954</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.03414671123027802</v>
+        <v>0.0002433668414596468</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.001660994836129248</v>
+        <v>0.001118014217354357</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.003401698544621468</v>
+        <v>0.0007379094022326171</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.01359661854803562</v>
+        <v>0.002640987746417522</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.002230160171166062</v>
+        <v>0.0003359327092766762</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.01099696103483438</v>
+        <v>0.00160018471069634</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.008447883650660515</v>
+        <v>0.002501601818948984</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.006469355896115303</v>
+        <v>0.003325775265693665</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.001354642328806221</v>
+        <v>0.002699533477425575</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.01348647940903902</v>
+        <v>0.0004655827069655061</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.002056635683402419</v>
+        <v>0.002943424042314291</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.007453215774148703</v>
+        <v>0.0002089129702653736</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.006323655601590872</v>
+        <v>0.002044148975983262</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.003153563709929585</v>
+        <v>4.884004010818899e-05</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.01583701185882092</v>
+        <v>0.0001882006181403995</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.01123475469648838</v>
+        <v>0.000787976779974997</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.004064849112182856</v>
+        <v>0.0004515318432822824</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.006906637921929359</v>
+        <v>0.0007109590223990381</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.004370377399027348</v>
+        <v>0.004710923414677382</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.01205499842762947</v>
+        <v>7.55226647015661e-05</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.006521683186292648</v>
+        <v>0.001038722926750779</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0002753399021457881</v>
+        <v>0.001244784914888442</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.001204589614644647</v>
+        <v>0.0007954634493216872</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.007515796460211277</v>
+        <v>0.0005016406648792326</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.002394336741417646</v>
+        <v>0.001335760578513145</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.0001994360500248149</v>
+        <v>0.0005660514580085874</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.008247849531471729</v>
+        <v>0.0005502133863046765</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.007365298923105001</v>
+        <v>0.002582389395684004</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.02798605337738991</v>
+        <v>0.001083613373339176</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.01294717937707901</v>
+        <v>0.0003106893564108759</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.001438835985027254</v>
+        <v>0.000174344313563779</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.03210212662816048</v>
+        <v>0.0008049834286794066</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.003861922305077314</v>
+        <v>0.002661891747266054</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.005742719396948814</v>
+        <v>0.0004732591041829437</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.00387792382389307</v>
+        <v>0.0002282487548654899</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.001706249546259642</v>
+        <v>0.001937626861035824</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.009510009549558163</v>
+        <v>0.001188547350466251</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.004575317725539207</v>
+        <v>0.002195402048528194</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.002743211342021823</v>
+        <v>0.000499500660225749</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.002874183701351285</v>
+        <v>0.001036139554344118</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.017055319622159</v>
+        <v>0.001736427424475551</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.01059653237462044</v>
+        <v>0.00101258757058531</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.003436963073909283</v>
+        <v>0.002279114676639438</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.01455473620444536</v>
+        <v>0.0001219537225551903</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.005601999349892139</v>
+        <v>0.001330162049271166</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.006507710553705692</v>
+        <v>0.003854110604152083</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.02310184948146343</v>
+        <v>0.0009832474170252681</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.009437398985028267</v>
+        <v>7.380402166745625e-06</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.005474619101732969</v>
+        <v>0.001206501969136298</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.004649868234992027</v>
+        <v>0.0001934258616529405</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.006116723641753197</v>
+        <v>0.001564163714647293</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.0005460915854200721</v>
+        <v>0.0008338944753631949</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.007171109784394503</v>
+        <v>0.001494834665209055</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.003868303261697292</v>
+        <v>0.0007364077027887106</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.01388520933687687</v>
+        <v>0.0006753172492608428</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.02111101523041725</v>
+        <v>0.002321754349395633</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.008155697025358677</v>
+        <v>0.001174047589302063</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.01792092248797417</v>
+        <v>0.001337873400188982</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.01145405229181051</v>
+        <v>0.003041877876967192</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.003245776053518057</v>
+        <v>8.446758147329092e-05</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.003298921044915915</v>
+        <v>0.002570474753156304</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.006397181190550327</v>
+        <v>0.002884719055145979</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.00155426561832428</v>
+        <v>0.002491197548806667</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.03097954392433167</v>
+        <v>0.003353813663125038</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.01395811885595322</v>
+        <v>4.180939868092537e-05</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.0004490986466407776</v>
+        <v>0.002316394820809364</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.001003304263576865</v>
+        <v>0.00454313587397337</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.01464895065873861</v>
+        <v>0.00270769651979208</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.0002228822559118271</v>
+        <v>0.0002575370599515736</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.01357540301978588</v>
+        <v>0.002765243640169501</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.009353050962090492</v>
+        <v>0.001743326080031693</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.003522660816088319</v>
+        <v>0.003949509467929602</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.01494434103369713</v>
+        <v>0.0007977845380082726</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.01515675522387028</v>
+        <v>0.001137515646405518</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.003356313332915306</v>
+        <v>0.0009009112836793065</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.02005556784570217</v>
+        <v>0.0003296680515632033</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.003224789164960384</v>
+        <v>0.003146566916257143</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.0106731504201889</v>
+        <v>0.003226920263841748</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.005529352929443121</v>
+        <v>0.002489946084097028</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.004260797519236803</v>
+        <v>0.001140151056461036</v>
       </c>
     </row>
     <row r="6">
@@ -3849,1140 +3849,1140 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.199740648269653</v>
+        <v>0.01749461516737938</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2106734365224838</v>
+        <v>0.336054652929306</v>
       </c>
       <c r="C7" t="n">
-        <v>0.878167450428009</v>
+        <v>0.001769015216268599</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8337230682373047</v>
+        <v>0.2101438045501709</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6458621621131897</v>
+        <v>0.03896214812994003</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00113915535621345</v>
+        <v>0.02554092742502689</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2696371674537659</v>
+        <v>0.02305513992905617</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02971383556723595</v>
+        <v>0.05281304195523262</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3064710199832916</v>
+        <v>0.04238639771938324</v>
       </c>
       <c r="J7" t="n">
-        <v>1.296976923942566</v>
+        <v>0.02129192464053631</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05777566507458687</v>
+        <v>0.2784970998764038</v>
       </c>
       <c r="L7" t="n">
-        <v>1.014738440513611</v>
+        <v>0.01753385178744793</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6796776056289673</v>
+        <v>0.1849109679460526</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3498751223087311</v>
+        <v>0.07705268263816833</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004348888993263245</v>
+        <v>0.07808135449886322</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1804336607456207</v>
+        <v>0.01174179650843143</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3335862159729004</v>
+        <v>0.02438727021217346</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4850040078163147</v>
+        <v>0.02983515337109566</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05911339819431305</v>
+        <v>0.01477943826466799</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1832918524742126</v>
+        <v>0.02883975207805634</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1404302716255188</v>
+        <v>0.003054209984838963</v>
       </c>
       <c r="V7" t="n">
-        <v>0.05169331654906273</v>
+        <v>0.02048361115157604</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1418830454349518</v>
+        <v>0.01718337461352348</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03167595714330673</v>
+        <v>0.02431385405361652</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02003339119255543</v>
+        <v>0.02913597412407398</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.01385942846536636</v>
+        <v>0.04894454032182693</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.08667096495628357</v>
+        <v>0.04212301224470139</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.09427188336849213</v>
+        <v>0.03864895179867744</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.1161642968654633</v>
+        <v>0.03346508741378784</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.2403174340724945</v>
+        <v>0.01922417059540749</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.231665164232254</v>
+        <v>0.02045218087732792</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.2295425981283188</v>
+        <v>0.0307279285043478</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.04925670847296715</v>
+        <v>0.02881253510713577</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.1203346848487854</v>
+        <v>0.007512318901717663</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.08417282253503799</v>
+        <v>0.01918620243668556</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.1387585401535034</v>
+        <v>0.001890676096081734</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.2803137302398682</v>
+        <v>0.006732242181897163</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.2936738431453705</v>
+        <v>0.01449014432728291</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.07942061126232147</v>
+        <v>0.00684451637789607</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.08024469763040543</v>
+        <v>0.01295268815010786</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.006422595120966434</v>
+        <v>0.02584080584347248</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.03115234151482582</v>
+        <v>0.01840069517493248</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.001871287822723389</v>
+        <v>0.015384241938591</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.2263021767139435</v>
+        <v>0.005467143841087818</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.02688771300017834</v>
+        <v>0.004915316589176655</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.6999000906944275</v>
+        <v>0.04685200378298759</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.3394127190113068</v>
+        <v>0.209482342004776</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.6042386293411255</v>
+        <v>0.03633763268589973</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.05231945961713791</v>
+        <v>0.04978913441300392</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.05409786850214005</v>
+        <v>0.01349901873618364</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.203455314040184</v>
+        <v>0.008104206994175911</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.3577890396118164</v>
+        <v>0.005966387689113617</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.1664683520793915</v>
+        <v>0.03800850734114647</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.1386349350214005</v>
+        <v>0.01853165030479431</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.02805818244814873</v>
+        <v>0.01076901145279408</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.05776930600404739</v>
+        <v>0.06935596466064453</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.1863506734371185</v>
+        <v>0.08028792589902878</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.3669998049736023</v>
+        <v>0.06423627585172653</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.5364939570426941</v>
+        <v>0.1009151339530945</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.02480761334300041</v>
+        <v>0.006170173641294241</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.1704892516136169</v>
+        <v>0.00725330738350749</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.5220723152160645</v>
+        <v>0.04384276270866394</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.07399782538414001</v>
+        <v>0.02429556846618652</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.2282346040010452</v>
+        <v>0.03823095932602882</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.2171271443367004</v>
+        <v>0.02209564857184887</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.2675037980079651</v>
+        <v>0.01194832846522331</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.01957548409700394</v>
+        <v>0.01352412905544043</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.1521380096673965</v>
+        <v>0.02650200203061104</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.3200012445449829</v>
+        <v>0.03930170461535454</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.006769008934497833</v>
+        <v>0.006044872105121613</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.1655638366937637</v>
+        <v>0.02320835366845131</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.01361137628555298</v>
+        <v>0.004851298406720161</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.591896116733551</v>
+        <v>0.03286215290427208</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.1916991770267487</v>
+        <v>0.09842094779014587</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.2011921554803848</v>
+        <v>0.001491874339990318</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.1819083690643311</v>
+        <v>0.02880774438381195</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.1812778413295746</v>
+        <v>0.03218982368707657</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.3293942511081696</v>
+        <v>0.0122867077589035</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.09596258401870728</v>
+        <v>0.02203447930514812</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.1559273600578308</v>
+        <v>0.00256432918831706</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.04200609400868416</v>
+        <v>0.03281259164214134</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.27840456366539</v>
+        <v>0.009892720729112625</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.2667366564273834</v>
+        <v>0.04955167323350906</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.1228372678160667</v>
+        <v>0.02274714037775993</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.1005085557699203</v>
+        <v>0.02754395268857479</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.09262574464082718</v>
+        <v>0.01544403191655874</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.01763137802481651</v>
+        <v>0.01028331089764833</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.07596932351589203</v>
+        <v>0.009837527759373188</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.01324129104614258</v>
+        <v>0.0001980667002499104</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.03084949962794781</v>
+        <v>0.02166465669870377</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.09971627593040466</v>
+        <v>0.05039254948496819</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.1373965889215469</v>
+        <v>0.003563764039427042</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.06558312475681305</v>
+        <v>0.009904524311423302</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.1231935173273087</v>
+        <v>0.03766901791095734</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.2451430261135101</v>
+        <v>0.01277881860733032</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.0274052694439888</v>
+        <v>0.03507706895470619</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.3540552854537964</v>
+        <v>0.05354601517319679</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.2747584283351898</v>
+        <v>0.0450713150203228</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.06441394984722137</v>
+        <v>0.008422376587986946</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.2348218560218811</v>
+        <v>0.005400598049163818</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.2591703534126282</v>
+        <v>0.04314865544438362</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.1299365162849426</v>
+        <v>0.03233780339360237</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.03863275051116943</v>
+        <v>0.03676283359527588</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.2089060693979263</v>
+        <v>0.01691687852144241</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.009833330288529396</v>
+        <v>0.01104033645242453</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.07648348063230515</v>
+        <v>0.0134571734815836</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.006555467844009399</v>
+        <v>0.01201780140399933</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.04670633375644684</v>
+        <v>0.01434910483658314</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.1627883017063141</v>
+        <v>0.006203217897564173</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.7694385647773743</v>
+        <v>0.02670623362064362</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.3046716749668121</v>
+        <v>0.03032246604561806</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.3361608386039734</v>
+        <v>0.08414817601442337</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.04103192687034607</v>
+        <v>0.05077948793768883</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.02210269495844841</v>
+        <v>0.004168327897787094</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.1496806740760803</v>
+        <v>0.02947595715522766</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.2139466851949692</v>
+        <v>0.02875505201518536</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.1959323287010193</v>
+        <v>0.03087193332612514</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.219330906867981</v>
+        <v>0.0138591593131423</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.2308596670627594</v>
+        <v>0.003230943810194731</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.1345880925655365</v>
+        <v>0.01301401481032372</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.01733445003628731</v>
+        <v>0.003320136340335011</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.1648293137550354</v>
+        <v>0.02341177873313427</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.2894337773323059</v>
+        <v>0.04343638196587563</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.02766162157058716</v>
+        <v>0.00318798515945673</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.1651043295860291</v>
+        <v>0.03078148514032364</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.09569540619850159</v>
+        <v>0.02821123413741589</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.02954026125371456</v>
+        <v>3.240769729018211e-05</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.08973206579685211</v>
+        <v>0.003746781498193741</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.1417089700698853</v>
+        <v>0.03797295689582825</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.01473060622811317</v>
+        <v>0.03318977355957031</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.2547832727432251</v>
+        <v>0.01588424295186996</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.06817073374986649</v>
+        <v>0.01001348905265331</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.03389166668057442</v>
+        <v>0.0146589819341898</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.1964812874794006</v>
+        <v>0.008566716685891151</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.1654360890388489</v>
+        <v>9.061023592948914e-05</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.3543536961078644</v>
+        <v>0.01555509213358164</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.1427090167999268</v>
+        <v>0.04944857209920883</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.1213838309049606</v>
+        <v>0.03623170405626297</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.114491879940033</v>
+        <v>0.004921993240714073</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.1230064183473587</v>
+        <v>0.01764643937349319</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.2622367739677429</v>
+        <v>0.01948077231645584</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.0263277031481266</v>
+        <v>0.01144460588693619</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.007656591013073921</v>
+        <v>0.004030149430036545</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.06197778880596161</v>
+        <v>0.01989035308361053</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.003042001277208328</v>
+        <v>0.004179383628070354</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.4003458023071289</v>
+        <v>0.02266180701553822</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.1798285841941833</v>
+        <v>0.04103059321641922</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.0377570316195488</v>
+        <v>0.006662069819867611</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.2938838601112366</v>
+        <v>0.01520288549363613</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.2071537226438522</v>
+        <v>0.0365947037935257</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.2379956543445587</v>
+        <v>0.03496914729475975</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.1564664244651794</v>
+        <v>0.03653731197118759</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.0216711014509201</v>
+        <v>0.005835366435348988</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.2913176715373993</v>
+        <v>0.0002078512916341424</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.2232804149389267</v>
+        <v>0.04638001322746277</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.134783536195755</v>
+        <v>0.0190617460757494</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.06290276348590851</v>
+        <v>0.02849311381578445</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.1623654216527939</v>
+        <v>0.01810207217931747</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.08797293901443481</v>
+        <v>0.01310627534985542</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.08089548349380493</v>
+        <v>0.01670447736978531</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.06614761054515839</v>
+        <v>0.007689914666116238</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.03176482766866684</v>
+        <v>0.02371981926262379</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.285801500082016</v>
+        <v>0.000571542652323842</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.1695453524589539</v>
+        <v>0.03495955839753151</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.01838983595371246</v>
+        <v>0.02655265852808952</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.2502916753292084</v>
+        <v>0.03369306772947311</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.1329348683357239</v>
+        <v>0.01341901905834675</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.1967642903327942</v>
+        <v>0.02039993554353714</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.07045115530490875</v>
+        <v>0.003740128595381975</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.1388386785984039</v>
+        <v>0.002936520148068666</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.1977364718914032</v>
+        <v>0.01318507269024849</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.2201588749885559</v>
+        <v>0.004478650167584419</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.5869255065917969</v>
+        <v>0.06927105039358139</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.0206209197640419</v>
+        <v>0.04570295289158821</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.6843079328536987</v>
+        <v>0.01875703036785126</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.2598771452903748</v>
+        <v>0.005849087610840797</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.05007818713784218</v>
+        <v>0.01308904774487019</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.01906651817262173</v>
+        <v>0.01180094480514526</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.2035095393657684</v>
+        <v>0.007030779495835304</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.04163398966193199</v>
+        <v>0.02901250496506691</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.01323804259300232</v>
+        <v>0.0453663244843483</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.2475565373897552</v>
+        <v>0.02597565203905106</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.01422001421451569</v>
+        <v>0.01798609830439091</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.02725084684789181</v>
+        <v>0.006632606498897076</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.5071888566017151</v>
+        <v>0.005244524218142033</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.2090191245079041</v>
+        <v>0.06502917408943176</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.03213133290410042</v>
+        <v>0.1013016104698181</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.1885804980993271</v>
+        <v>0.02950155921280384</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.08405289053916931</v>
+        <v>0.02945847623050213</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01987666077911854</v>
+        <v>0.02054424956440926</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03340387344360352</v>
+        <v>0.1541447788476944</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2233136296272278</v>
+        <v>0.01171651110053062</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007398584391921759</v>
+        <v>0.08173266798257828</v>
       </c>
       <c r="E8" t="n">
-        <v>0.143082782626152</v>
+        <v>0.02274532802402973</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07346636801958084</v>
+        <v>0.1011764779686928</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03087194450199604</v>
+        <v>0.004441476427018642</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03605334088206291</v>
+        <v>0.03371528536081314</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07208381593227386</v>
+        <v>0.003980409353971481</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01999527215957642</v>
+        <v>0.04520372301340103</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01769335940480232</v>
+        <v>0.1179286241531372</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2211514413356781</v>
+        <v>0.00294628064148128</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01156275998800993</v>
+        <v>0.07365146279335022</v>
       </c>
       <c r="N8" t="n">
-        <v>0.08819947391748428</v>
+        <v>0.02176201902329922</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03905947878956795</v>
+        <v>0.107567697763443</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03732629492878914</v>
+        <v>0.004576352424919605</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02930989488959312</v>
+        <v>0.008872402831912041</v>
       </c>
       <c r="R8" t="n">
-        <v>0.06812490522861481</v>
+        <v>0.0003022318123839796</v>
       </c>
       <c r="S8" t="n">
-        <v>0.005860540084540844</v>
+        <v>0.01064970158040524</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03967848420143127</v>
+        <v>0.02084491401910782</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01526197884231806</v>
+        <v>0.008988916873931885</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01144992280751467</v>
+        <v>0.0124060120433569</v>
       </c>
       <c r="W8" t="n">
-        <v>0.02278351411223412</v>
+        <v>0.007449802942574024</v>
       </c>
       <c r="X8" t="n">
-        <v>0.001744166132993996</v>
+        <v>0.009126972407102585</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01220948249101639</v>
+        <v>0.01893297396600246</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0123794199898839</v>
+        <v>0.01181428320705891</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.006164976395666599</v>
+        <v>0.01692814566195011</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.01812165603041649</v>
+        <v>0.0007570534944534302</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.008937371894717216</v>
+        <v>0.01722178608179092</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.04738891869783401</v>
+        <v>0.005222648847848177</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.001118863932788372</v>
+        <v>0.0006213702727109194</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.02178054489195347</v>
+        <v>0.01059006061404943</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.002097155898809433</v>
+        <v>0.005721245426684618</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.005748832132667303</v>
+        <v>0.01056879013776779</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.01405780110508204</v>
+        <v>0.00875382125377655</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.02547610923647881</v>
+        <v>0.003110786667093635</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.02117653004825115</v>
+        <v>0.01287087798118591</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.01444885320961475</v>
+        <v>0.02255245484411716</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.04383860900998116</v>
+        <v>0.007919392548501492</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.002274773316457868</v>
+        <v>0.005070779006928205</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.009793633595108986</v>
+        <v>0.007548168301582336</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.003088472643867135</v>
+        <v>0.02004710771143436</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.002503497526049614</v>
+        <v>0.00450096232816577</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.01223858632147312</v>
+        <v>0.006954257842153311</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.004700408317148685</v>
+        <v>0.0225945021957159</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.0146212400868535</v>
+        <v>0.01217802427709103</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.01596355438232422</v>
+        <v>0.09714170545339584</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.09110742062330246</v>
+        <v>0.008235120214521885</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.004696306306868792</v>
+        <v>0.0003693974576890469</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.02869998663663864</v>
+        <v>0.001146107912063599</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.009444711729884148</v>
+        <v>0.05795254930853844</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.01684105768799782</v>
+        <v>0.003100724890828133</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.003580992575734854</v>
+        <v>0.03103127330541611</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.01079272758215666</v>
+        <v>0.03511251509189606</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.01561327092349529</v>
+        <v>0.02488536201417446</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.01049608457833529</v>
+        <v>0.02926093712449074</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.06035349518060684</v>
+        <v>0.04085434973239899</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.004676499869674444</v>
+        <v>0.02448496408760548</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.07004363089799881</v>
+        <v>0.04558576643466949</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.02629040367901325</v>
+        <v>0.02771538123488426</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.009699545800685883</v>
+        <v>0.01171983126550913</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.02113713882863522</v>
+        <v>0.03624960035085678</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.04742417111992836</v>
+        <v>0.003005619626492262</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.01481336914002895</v>
+        <v>0.002553754951804876</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.005602219142019749</v>
+        <v>0.02155166864395142</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.0545974038541317</v>
+        <v>0.01888877712190151</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.003930678591132164</v>
+        <v>0.01978622190654278</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.02807959727942944</v>
+        <v>0.001231378642842174</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.006453041918575764</v>
+        <v>0.0003131866687908769</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.01396516710519791</v>
+        <v>0.02117399871349335</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.01680588349699974</v>
+        <v>0.005326866637915373</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.005950629711151123</v>
+        <v>0.001886234618723392</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.0187701191753149</v>
+        <v>0.007947856560349464</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.02160058356821537</v>
+        <v>0.04924914240837097</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.06400460004806519</v>
+        <v>0.02337438613176346</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.01402732823044062</v>
+        <v>0.01369111798703671</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.04726583883166313</v>
+        <v>0.01323506236076355</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.03416454792022705</v>
+        <v>0.01811324059963226</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.004090810194611549</v>
+        <v>0.01410525012761354</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.009033673442900181</v>
+        <v>0.01538914628326893</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.003507293993607163</v>
+        <v>0.02485889755189419</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.01034882199019194</v>
+        <v>0.0009709198493510485</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.008431375958025455</v>
+        <v>0.02539891004562378</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.03949218615889549</v>
+        <v>0.01993360556662083</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.004085551016032696</v>
+        <v>0.01487281825393438</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.02350478991866112</v>
+        <v>0.01049923337996006</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.0142610864713788</v>
+        <v>0.01751353219151497</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.008002482354640961</v>
+        <v>0.009773348458111286</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.0006233771564438939</v>
+        <v>0.004854809958487749</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.009138182736933231</v>
+        <v>0.01401029247790575</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.01831941306591034</v>
+        <v>0.01938649266958237</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.03359850496053696</v>
+        <v>0.003352775005623698</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.008051499724388123</v>
+        <v>0.009701211005449295</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.009838547557592392</v>
+        <v>0.02308746427297592</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.0177475456148386</v>
+        <v>0.00529091153293848</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.03148592263460159</v>
+        <v>0.001781660597771406</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.001899082912132144</v>
+        <v>0.01939998939633369</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.004182336386293173</v>
+        <v>0.01682831533253193</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.01467835810035467</v>
+        <v>0.0004072985611855984</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.01031618937849998</v>
+        <v>0.001347206067293882</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.007176362909376621</v>
+        <v>0.02299322560429573</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.04305063188076019</v>
+        <v>0.01918674074113369</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.005932606291025877</v>
+        <v>0.02192344516515732</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.03434498235583305</v>
+        <v>0.01029690448194742</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.0134550342336297</v>
+        <v>0.01885723136365414</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.006665701046586037</v>
+        <v>0.009340828284621239</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.002479654736816883</v>
+        <v>0.01399167440831661</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.01036069355905056</v>
+        <v>0.01010886393487453</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.002699767239391804</v>
+        <v>0.00532482797279954</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.02150605246424675</v>
+        <v>0.0269454475492239</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.03421443700790405</v>
+        <v>0.005423343740403652</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.002670965390279889</v>
+        <v>0.0548427551984787</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.005714702419936657</v>
+        <v>0.006971968337893486</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.004260110668838024</v>
+        <v>0.01526784803718328</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.01564596965909004</v>
+        <v>0.0249808244407177</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.02715081535279751</v>
+        <v>0.02585091814398766</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.005093147978186607</v>
+        <v>0.01150512509047985</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.007472833152860403</v>
+        <v>0.0004446341190487146</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.01710840687155724</v>
+        <v>0.004876273218542337</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.01238125748932362</v>
+        <v>0.01316289603710175</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.005766821093857288</v>
+        <v>0.0120595209300518</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.01033316645771265</v>
+        <v>0.00674870703369379</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.0173999797552824</v>
+        <v>0.0007534219184890389</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.008746158331632614</v>
+        <v>0.002406643703579903</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.0113052474334836</v>
+        <v>0.0003575221635401249</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.004826406482607126</v>
+        <v>0.02030427940189838</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.002387834247201681</v>
+        <v>0.004735038615763187</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.002692531794309616</v>
+        <v>0.01115542370826006</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.03290721029043198</v>
+        <v>0.02352325059473515</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.01885644160211086</v>
+        <v>0.00213361531496048</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.01792723312973976</v>
+        <v>0.006478271447122097</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.004781193099915981</v>
+        <v>0.01184908859431744</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.003849448636174202</v>
+        <v>0.0005185280460864305</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.003096363507211208</v>
+        <v>0.006821702234447002</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.01392563804984093</v>
+        <v>0.004231369122862816</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.01196345034986734</v>
+        <v>0.009791303426027298</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.02137992344796658</v>
+        <v>0.01699800975620747</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.04678858444094658</v>
+        <v>0.0141812851652503</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.01170282624661922</v>
+        <v>0.00126372289378196</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.02584012225270271</v>
+        <v>0.003749635070562363</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.04298322647809982</v>
+        <v>0.01120447739958763</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.006830764003098011</v>
+        <v>0.01757904887199402</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.01230354700237513</v>
+        <v>6.19812635704875e-05</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.007984409108757973</v>
+        <v>0.003460365813225508</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.00695898849517107</v>
+        <v>0.004188934341073036</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.01055835466831923</v>
+        <v>0.009938753210008144</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.03051070123910904</v>
+        <v>0.02181875146925449</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.009954093024134636</v>
+        <v>0.01467712596058846</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.01970071531832218</v>
+        <v>0.01804769411683083</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.006768084596842527</v>
+        <v>0.01974540762603283</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.009047604165971279</v>
+        <v>0.02113049104809761</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.005658218637108803</v>
+        <v>0.02497133798897266</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.0172700434923172</v>
+        <v>0.0007540013175457716</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.01842578127980232</v>
+        <v>0.002260385081171989</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.005372191779315472</v>
+        <v>0.02174869924783707</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.04299269616603851</v>
+        <v>0.01511343102902174</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.002774026244878769</v>
+        <v>0.01713182404637337</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.02676611952483654</v>
+        <v>0.01212081965059042</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.005480682943016291</v>
+        <v>0.01517320889979601</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.006483963690698147</v>
+        <v>0.01594740897417068</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.004160904325544834</v>
+        <v>0.008360372856259346</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.01029919274151325</v>
+        <v>0.01631826907396317</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.01341370400041342</v>
+        <v>0.002573833102360368</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.007110383827239275</v>
+        <v>0.01144919916987419</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.02181364968419075</v>
+        <v>0.01957546547055244</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.05396601185202599</v>
+        <v>0.02402395755052567</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.03333638608455658</v>
+        <v>0.007941323332488537</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.005716305691748857</v>
+        <v>0.01246618945151567</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.002511163242161274</v>
+        <v>0.007343288511037827</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.006228376645594835</v>
+        <v>0.005570081528276205</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.008703886531293392</v>
+        <v>0.01177260931581259</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.00266708992421627</v>
+        <v>0.007160510867834091</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.07378325611352921</v>
+        <v>0.02461561188101768</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.03394628316164017</v>
+        <v>0.01329601183533669</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.02043008431792259</v>
+        <v>0.02610146254301071</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.03179488703608513</v>
+        <v>0.02313297241926193</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.02693596668541431</v>
+        <v>0.0139641035348177</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.002312732627615333</v>
+        <v>0.01349238120019436</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.001107575139030814</v>
+        <v>0.01043792255222797</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.008264337666332722</v>
+        <v>0.003558184253051877</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.01059914194047451</v>
+        <v>0.02979935519397259</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.01938411593437195</v>
+        <v>0.0005325478268787265</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.0197843611240387</v>
+        <v>0.003506271168589592</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.003279061755165458</v>
+        <v>0.002943465951830149</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.03688922524452209</v>
+        <v>0.007713175378739834</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.03043129667639732</v>
+        <v>0.01596568524837494</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.006885292939841747</v>
+        <v>0.07000645995140076</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.01749897003173828</v>
+        <v>0.004848400130867958</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.009630966000258923</v>
+        <v>0.009129069745540619</v>
       </c>
     </row>
     <row r="9">
@@ -5556,2278 +5556,2278 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0003669437137432396</v>
+        <v>0.2805963456630707</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0007964980322867632</v>
+        <v>0.441979855298996</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006095908116549253</v>
+        <v>0.06113296002149582</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00139085587579757</v>
+        <v>0.05982346460223198</v>
       </c>
       <c r="E10" t="n">
-        <v>0.005704688839614391</v>
+        <v>0.6831540465354919</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002625072374939919</v>
+        <v>0.07045173645019531</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001758372993208468</v>
+        <v>0.04902379214763641</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002782637253403664</v>
+        <v>0.2069366574287415</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001147362403571606</v>
+        <v>0.03974799066781998</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0008388733258470893</v>
+        <v>0.02292834222316742</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0006012085359543562</v>
+        <v>0.3392647206783295</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007830578833818436</v>
+        <v>0.02494445443153381</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001371276564896107</v>
+        <v>0.01493038237094879</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00328064663335681</v>
+        <v>0.5555555820465088</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0001249874330824241</v>
+        <v>0.03318819403648376</v>
       </c>
       <c r="P10" t="n">
-        <v>0.002327509690076113</v>
+        <v>0.01484200358390808</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001911691157147288</v>
+        <v>0.4409193992614746</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0008482319535687566</v>
+        <v>0.1815718561410904</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001013075583614409</v>
+        <v>0.1205582469701767</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0003609278937801719</v>
+        <v>0.1664027273654938</v>
       </c>
       <c r="U10" t="n">
-        <v>9.432859224034473e-05</v>
+        <v>0.009848351590335369</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0008080502157099545</v>
+        <v>0.05168601498007774</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0008396821212954819</v>
+        <v>0.04122939333319664</v>
       </c>
       <c r="X10" t="n">
-        <v>7.382515468634665e-05</v>
+        <v>0.06173713877797127</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0001359946181764826</v>
+        <v>0.0804702490568161</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0008137512486428022</v>
+        <v>0.02902509272098541</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.001677883206866682</v>
+        <v>0.02057936415076256</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.001200333819724619</v>
+        <v>0.0762329176068306</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.001969625009223819</v>
+        <v>0.144304022192955</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.001026342157274485</v>
+        <v>0.04054269939661026</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0002592819510027766</v>
+        <v>0.01358820497989655</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0003291758475825191</v>
+        <v>0.2100554406642914</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0009518382721580565</v>
+        <v>0.07199429720640182</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0002623141626827419</v>
+        <v>0.1974164545536041</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.001720966654829681</v>
+        <v>0.1209036409854889</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.0005769775016233325</v>
+        <v>0.02816823869943619</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.0007277455297298729</v>
+        <v>0.2574462592601776</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.001185630331747234</v>
+        <v>0.02497842721641064</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.001009826897643507</v>
+        <v>0.03198706731200218</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.0002920260885730386</v>
+        <v>0.02622867934405804</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.001318988855928183</v>
+        <v>0.1381444185972214</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.0006857820553705096</v>
+        <v>0.04627789184451103</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0004699451383203268</v>
+        <v>0.09830465167760849</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.0002773921005427837</v>
+        <v>0.05009977146983147</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.001234394148923457</v>
+        <v>0.02783438749611378</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.001046971417963505</v>
+        <v>0.1171659901738167</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.00223517743870616</v>
+        <v>0.8384698629379272</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.002147753024473786</v>
+        <v>0.09629818052053452</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.0004190696636214852</v>
+        <v>0.2447023540735245</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.001489489222876728</v>
+        <v>0.04101774841547012</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.001644476433284581</v>
+        <v>0.0920974463224411</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.0001903331285575405</v>
+        <v>0.05787979438900948</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.00490625062957406</v>
+        <v>0.189133957028389</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.003136635757982731</v>
+        <v>0.06557884812355042</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.0007155850762501359</v>
+        <v>0.1150642856955528</v>
       </c>
       <c r="BD10" t="n">
-        <v>3.851164365187287e-06</v>
+        <v>0.07427400350570679</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.001009064260870218</v>
+        <v>0.1193651705980301</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.0003749138850253075</v>
+        <v>0.1531386226415634</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.004325163550674915</v>
+        <v>0.2889701128005981</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.002029689494520426</v>
+        <v>0.0498034805059433</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.0006104615749791265</v>
+        <v>0.1313077509403229</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.00152330962009728</v>
+        <v>0.2180470079183578</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.001049402402713895</v>
+        <v>0.03995509818196297</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.0008588681230321527</v>
+        <v>0.1007704064249992</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0008812992600724101</v>
+        <v>0.6551312804222107</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.00135751161724329</v>
+        <v>0.05229272693395615</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.0007476196042262018</v>
+        <v>0.3572554886341095</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0005154058453626931</v>
+        <v>0.5692450404167175</v>
       </c>
       <c r="BQ10" t="n">
-        <v>5.571360088652e-05</v>
+        <v>0.1472991555929184</v>
       </c>
       <c r="BR10" t="n">
-        <v>3.33731368300505e-05</v>
+        <v>0.05150902271270752</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.0003839786222670227</v>
+        <v>0.2590013444423676</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.0007986095733940601</v>
+        <v>0.007992099970579147</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.0008375718607567251</v>
+        <v>0.06196014583110809</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.001121310400776565</v>
+        <v>0.4483594596385956</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.00262678787112236</v>
+        <v>0.1600461453199387</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.0002656678843777627</v>
+        <v>0.02503859251737595</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.0007386367651633918</v>
+        <v>0.03613701835274696</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.0008107509347610176</v>
+        <v>0.1675861924886703</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.0001483985979575664</v>
+        <v>0.2559755742549896</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.001888404018245637</v>
+        <v>0.1069889143109322</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.001282908604480326</v>
+        <v>0.03464905545115471</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.000499621091876179</v>
+        <v>0.01177250221371651</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.001099198125302792</v>
+        <v>0.08019564300775528</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.0008586825570091605</v>
+        <v>0.009767176583409309</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.0007266760803759098</v>
+        <v>0.04478758201003075</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.0008720346377231181</v>
+        <v>0.07109620422124863</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.0004433746798895299</v>
+        <v>0.07605051249265671</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.0002976949326694012</v>
+        <v>0.0100842509418726</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.0005781218060292304</v>
+        <v>0.05932116508483887</v>
       </c>
       <c r="CL10" t="n">
-        <v>7.592585461679846e-05</v>
+        <v>0.03817098215222359</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.001096280291676521</v>
+        <v>0.4008621573448181</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.001796768046915531</v>
+        <v>0.5748123526573181</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.0006436131661757827</v>
+        <v>0.02514824643731117</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.0005188328213989735</v>
+        <v>0.1414861232042313</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.0008945655426941812</v>
+        <v>0.4946461319923401</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.0001568246079841629</v>
+        <v>0.02660372667014599</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.00120058748871088</v>
+        <v>0.1083959564566612</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.001268359832465649</v>
+        <v>0.1664955615997314</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.0009663111995905638</v>
+        <v>0.0294182151556015</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.000418084702687338</v>
+        <v>0.02080424502491951</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.001226521446369588</v>
+        <v>0.02967895939946175</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.001205219072289765</v>
+        <v>0.01389896869659424</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.0008266298100352287</v>
+        <v>0.09214332699775696</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.001244105631485581</v>
+        <v>0.06693867594003677</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.0008656531572341919</v>
+        <v>0.07870714366436005</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.0001247477921424434</v>
+        <v>0.005708150565624237</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.0002611334493849427</v>
+        <v>0.0135590573772788</v>
       </c>
       <c r="DD10" t="n">
-        <v>7.639307295903563e-05</v>
+        <v>0.02151814661920071</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.001762643689289689</v>
+        <v>0.4687318205833435</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.0007156573701649904</v>
+        <v>0.3455424606800079</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.000332110037561506</v>
+        <v>0.04790622368454933</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.001216726494021714</v>
+        <v>0.4928714036941528</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.0006455232505686581</v>
+        <v>0.1293278783559799</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.002493889536708593</v>
+        <v>0.04848993942141533</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.0004144331032875925</v>
+        <v>0.5217032432556152</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.0001051885192282498</v>
+        <v>0.107688844203949</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.0005607237690128386</v>
+        <v>0.006685155443847179</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.0006505997152999043</v>
+        <v>0.2248201668262482</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.0002186041092500091</v>
+        <v>0.2072355896234512</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.0005976257380098104</v>
+        <v>0.02217424474656582</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0002375313051743433</v>
+        <v>0.172416165471077</v>
       </c>
       <c r="DR10" t="n">
-        <v>7.4320676503703e-05</v>
+        <v>0.02693499252200127</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.001425023074261844</v>
+        <v>0.05426689237356186</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.0005333147710189223</v>
+        <v>0.0595284178853035</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.000796955602709204</v>
+        <v>0.1840282082557678</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.0008425829582847655</v>
+        <v>0.004335145931690931</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.000604524277150631</v>
+        <v>0.1076685637235641</v>
       </c>
       <c r="DX10" t="n">
-        <v>7.541326340287924e-05</v>
+        <v>0.1818699240684509</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.000155763904331252</v>
+        <v>0.01435653492808342</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.00143075839150697</v>
+        <v>0.2409279048442841</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.001167281297966838</v>
+        <v>0.002075866796076298</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.001319180009886622</v>
+        <v>0.06400629132986069</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.0005205678753554821</v>
+        <v>0.1742912530899048</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.001496637705713511</v>
+        <v>0.02352697029709816</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.000285996007733047</v>
+        <v>0.01897202059626579</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.001179554266855121</v>
+        <v>0.07470757514238358</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.0005221283063292503</v>
+        <v>0.04160713404417038</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.001961129484698176</v>
+        <v>0.02490838058292866</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.0006821096758358181</v>
+        <v>0.2548883259296417</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.002293145284056664</v>
+        <v>0.1279296576976776</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.001891273888759315</v>
+        <v>0.04445688799023628</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.0006956575089134276</v>
+        <v>0.03243640437722206</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.0002641664759721607</v>
+        <v>0.03708391636610031</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.001433635479770601</v>
+        <v>0.02111539244651794</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.0003573210560716689</v>
+        <v>0.1981569677591324</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.003012467874214053</v>
+        <v>0.08117071539163589</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.0006167510291561484</v>
+        <v>0.08151261508464813</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.0001288078783545643</v>
+        <v>0.04652849957346916</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.0008600144064985216</v>
+        <v>0.0507485419511795</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.0005767682450823486</v>
+        <v>0.1670603603124619</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.0005989205092191696</v>
+        <v>0.004611998796463013</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.001728447386994958</v>
+        <v>0.1329149603843689</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.0002768738195300102</v>
+        <v>0.07007399201393127</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.0006291585159488022</v>
+        <v>0.00811186246573925</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.000894642376806587</v>
+        <v>0.002822510898113251</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.0009804244618862867</v>
+        <v>0.01472650188952684</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.0008516359375789762</v>
+        <v>0.06302478909492493</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.001290739863179624</v>
+        <v>0.07564675807952881</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.000705860904417932</v>
+        <v>0.08631682395935059</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.0002971033682115376</v>
+        <v>0.003967057913541794</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.0001282401208300143</v>
+        <v>0.07963847368955612</v>
       </c>
       <c r="FF10" t="n">
-        <v>2.960291385534219e-05</v>
+        <v>0.03416407853364944</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.0005151380319148302</v>
+        <v>0.1198412552475929</v>
       </c>
       <c r="FH10" t="n">
-        <v>3.988004755228758e-05</v>
+        <v>0.1062239557504654</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.0008225300698541105</v>
+        <v>0.05669797211885452</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.0002198572183260694</v>
+        <v>0.03157187253236771</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.001245880965143442</v>
+        <v>0.01704712957143784</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.001313304295763373</v>
+        <v>0.07485699653625488</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.0006042871973477304</v>
+        <v>0.03099219128489494</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.0004238011024426669</v>
+        <v>0.05505262315273285</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.0005978717817924917</v>
+        <v>0.004712051246315241</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.001286942511796951</v>
+        <v>0.1342906504869461</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.002912468044087291</v>
+        <v>0.1546666920185089</v>
       </c>
       <c r="FR10" t="n">
-        <v>5.018449883209541e-05</v>
+        <v>0.1430119425058365</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.001254788832738996</v>
+        <v>0.4363366663455963</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.0004281198780518025</v>
+        <v>0.1474297493696213</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.0002321207139175385</v>
+        <v>0.03475146740674973</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.0008478465024381876</v>
+        <v>0.08580455929040909</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.001219869707711041</v>
+        <v>0.1203848198056221</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.0006369832553900778</v>
+        <v>0.02083909884095192</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.0001326297060586512</v>
+        <v>0.1112759709358215</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.001262676785700023</v>
+        <v>0.2709969282150269</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.0007110455771908164</v>
+        <v>0.01673185452818871</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.001518830307759345</v>
+        <v>0.1088231205940247</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.0001763825857779011</v>
+        <v>0.2891023457050323</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.0006372442585416138</v>
+        <v>0.02543116174638271</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.0006440476281568408</v>
+        <v>0.2100076377391815</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.00133221282158047</v>
+        <v>0.180729553103447</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.0005086722085252404</v>
+        <v>0.03905508294701576</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.05640917271375656</v>
+        <v>0.1594001948833466</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1659269332885742</v>
+        <v>0.7114303708076477</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2809887528419495</v>
+        <v>0.01077170297503471</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1111179292201996</v>
+        <v>0.01940236240625381</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07361947000026703</v>
+        <v>0.2609218060970306</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02698503620922565</v>
+        <v>0.1825795322656631</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02129771746695042</v>
+        <v>0.09918812662363052</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01259366888552904</v>
+        <v>0.08521964401006699</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1009421348571777</v>
+        <v>0.09781637042760849</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08197169750928879</v>
+        <v>0.05450309067964554</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1426504552364349</v>
+        <v>0.4785077273845673</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3200885355472565</v>
+        <v>0.068739153444767</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04214124009013176</v>
+        <v>0.006039654836058617</v>
       </c>
       <c r="N11" t="n">
-        <v>0.07931013405323029</v>
+        <v>0.4835624098777771</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03649511188268661</v>
+        <v>0.1929700970649719</v>
       </c>
       <c r="P11" t="n">
-        <v>0.05814395099878311</v>
+        <v>0.05670243129134178</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.005451811943203211</v>
+        <v>0.3567955195903778</v>
       </c>
       <c r="R11" t="n">
-        <v>0.11912702023983</v>
+        <v>0.1024420037865639</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02266409248113632</v>
+        <v>0.0315406322479248</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1011905074119568</v>
+        <v>0.3226701319217682</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06295283138751984</v>
+        <v>0.1057611703872681</v>
       </c>
       <c r="V11" t="n">
-        <v>0.04483725130558014</v>
+        <v>0.05253714323043823</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1088415011763573</v>
+        <v>0.1286153346300125</v>
       </c>
       <c r="X11" t="n">
-        <v>0.027235496789217</v>
+        <v>0.2011764049530029</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.06401010602712631</v>
+        <v>0.06075892597436905</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.03863090649247169</v>
+        <v>0.1024771183729172</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.002652601804584265</v>
+        <v>0.05645215883851051</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.007212732918560505</v>
+        <v>0.09115652740001678</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1150844246149063</v>
+        <v>0.119327686727047</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.06643810868263245</v>
+        <v>0.07576917111873627</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.09691381454467773</v>
+        <v>0.1429377794265747</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.03851398453116417</v>
+        <v>0.2190481275320053</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.04348380491137505</v>
+        <v>0.2318126112222672</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.08249644190073013</v>
+        <v>0.1563970744609833</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.1164092794060707</v>
+        <v>0.1477002650499344</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.1181848049163818</v>
+        <v>0.04580440372228622</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.03683710098266602</v>
+        <v>0.1687793135643005</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.004213891923427582</v>
+        <v>0.2157318443059921</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.04869604110717773</v>
+        <v>0.02741460129618645</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.01190743967890739</v>
+        <v>0.09001287817955017</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.01282865740358829</v>
+        <v>0.06737054139375687</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.01234444603323936</v>
+        <v>0.173184335231781</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.009854119271039963</v>
+        <v>0.108554296195507</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.04583078250288963</v>
+        <v>0.1086841076612473</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.02113243006169796</v>
+        <v>0.06257463991641998</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.08468834310770035</v>
+        <v>0.2406843900680542</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.06775000691413879</v>
+        <v>0.7128025889396667</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.06638405472040176</v>
+        <v>0.049127247184515</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.09488796442747116</v>
+        <v>0.1463181972503662</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.08570082485675812</v>
+        <v>0.3153400421142578</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.03068138286471367</v>
+        <v>0.0507129542529583</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.01659002155065536</v>
+        <v>0.1073432117700577</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.01734661124646664</v>
+        <v>0.1709844172000885</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.02562814950942993</v>
+        <v>0.1492420732975006</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.05365221947431564</v>
+        <v>0.1453688442707062</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.09560884535312653</v>
+        <v>0.009584458544850349</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.09871676564216614</v>
+        <v>0.0116177499294281</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.010207399725914</v>
+        <v>0.06249229609966278</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.1723939627408981</v>
+        <v>0.3217241764068604</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.03325915336608887</v>
+        <v>0.009277499280869961</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.003495894372463226</v>
+        <v>0.00991395115852356</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.06606540828943253</v>
+        <v>0.3014340996742249</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.007048414088785648</v>
+        <v>0.1336510330438614</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.03489277884364128</v>
+        <v>0.01566735282540321</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.00863686203956604</v>
+        <v>0.3058033287525177</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.05290255323052406</v>
+        <v>0.03481972217559814</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.04326757788658142</v>
+        <v>0.3818484544754028</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.01293680910021067</v>
+        <v>0.5215336084365845</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.06105176359415054</v>
+        <v>0.1929159462451935</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.01304710004478693</v>
+        <v>0.1028324440121651</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.05104877054691315</v>
+        <v>0.3116129338741302</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.0009607088286429644</v>
+        <v>0.1410498917102814</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.08201600611209869</v>
+        <v>0.1581361889839172</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.09275753796100616</v>
+        <v>0.4315388202667236</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.1061301678419113</v>
+        <v>0.06265336275100708</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.0303969606757164</v>
+        <v>0.1105078607797623</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.0470588356256485</v>
+        <v>0.05846350640058517</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.05431101098656654</v>
+        <v>0.05500297248363495</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.002517733722925186</v>
+        <v>0.2222920060157776</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.05590277910232544</v>
+        <v>0.09807175397872925</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.03345295414328575</v>
+        <v>0.01098230481147766</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.001953775063157082</v>
+        <v>0.02193270623683929</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.02157832682132721</v>
+        <v>0.1043534576892853</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.03994495421648026</v>
+        <v>0.001016783993691206</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.01566474512219429</v>
+        <v>0.06474339962005615</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01104878727346659</v>
+        <v>0.004713361151516438</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.01267381850630045</v>
+        <v>0.04088373109698296</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.01374352164566517</v>
+        <v>0.001175301149487495</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.0008711977861821651</v>
+        <v>0.0004828779492527246</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.01792237348854542</v>
+        <v>0.003652884857729077</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.002598052844405174</v>
+        <v>0.2428084909915924</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.03551789000630379</v>
+        <v>0.1674774289131165</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.03351076692342758</v>
+        <v>0.006460130214691162</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.04373179003596306</v>
+        <v>0.0193568654358387</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.06262896209955215</v>
+        <v>0.547415018081665</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.02010448649525642</v>
+        <v>0.01770417392253876</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.05569726973772049</v>
+        <v>0.07392217218875885</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.01911840215325356</v>
+        <v>0.00333897490054369</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.05428887531161308</v>
+        <v>0.1161284670233727</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.004103845916688442</v>
+        <v>0.01221847347915173</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.02069367468357086</v>
+        <v>0.1030282974243164</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.04854723438620567</v>
+        <v>0.001846309984102845</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.008664819411933422</v>
+        <v>0.09977249056100845</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.03476108983159065</v>
+        <v>0.006673175375908613</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.01642743498086929</v>
+        <v>0.1227684691548347</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.01709472201764584</v>
+        <v>0.01316055469214916</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.01734138466417789</v>
+        <v>0.03862191364169121</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.01711784303188324</v>
+        <v>0.01598230749368668</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.003199025290086865</v>
+        <v>0.316582053899765</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.01267478242516518</v>
+        <v>0.7528873085975647</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.03825518488883972</v>
+        <v>0.02467225305736065</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.1368702948093414</v>
+        <v>0.1729628145694733</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.06519880145788193</v>
+        <v>0.06565491110086441</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.0329914428293705</v>
+        <v>0.3511962294578552</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.02825879864394665</v>
+        <v>0.2670928239822388</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.03264903277158737</v>
+        <v>0.101970911026001</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.04292699694633484</v>
+        <v>0.2001711428165436</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.08523697406053543</v>
+        <v>0.1697846353054047</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.06754918396472931</v>
+        <v>0.222609281539917</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.03903455287218094</v>
+        <v>0.09957332164049149</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.0173520166426897</v>
+        <v>0.119606539607048</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.04152477532625198</v>
+        <v>0.09595672786235809</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.03029724583029747</v>
+        <v>0.02606700547039509</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.03068437799811363</v>
+        <v>0.08181335031986237</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.005466438364237547</v>
+        <v>0.1810568869113922</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.05512470006942749</v>
+        <v>0.1306178569793701</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.01411171536892653</v>
+        <v>0.0787089616060257</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.01974275708198547</v>
+        <v>0.04809901118278503</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.02756451442837715</v>
+        <v>0.0930139571428299</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.003300199285149574</v>
+        <v>0.208336278796196</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.0007137120701372623</v>
+        <v>0.1461500823497772</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.02370872907340527</v>
+        <v>0.06669134646654129</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.01903187111020088</v>
+        <v>0.1059281155467033</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.05438480153679848</v>
+        <v>0.0182699803262949</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.0610540397465229</v>
+        <v>0.1124081984162331</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.01736739277839661</v>
+        <v>0.1246560513973236</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.006031014025211334</v>
+        <v>0.1733247637748718</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.05660394951701164</v>
+        <v>0.02705996483564377</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.04776668548583984</v>
+        <v>0.0694003701210022</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.006066629663109779</v>
+        <v>0.02321023866534233</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.001921202056109905</v>
+        <v>0.1504146605730057</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.005865536630153656</v>
+        <v>0.05759788304567337</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.02363105490803719</v>
+        <v>0.008920223452150822</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.008213064633309841</v>
+        <v>0.01444581337273121</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.0504414364695549</v>
+        <v>0.05735998228192329</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.08786534518003464</v>
+        <v>0.03552058339118958</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.02282736077904701</v>
+        <v>0.007013141177594662</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.03346294164657593</v>
+        <v>0.02521643415093422</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.09936340153217316</v>
+        <v>0.08213234692811966</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.009637542068958282</v>
+        <v>0.1530995517969131</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.01668244600296021</v>
+        <v>0.003593575209379196</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.0380176454782486</v>
+        <v>0.1195993945002556</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.04975520446896553</v>
+        <v>0.0444938912987709</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.0180152915418148</v>
+        <v>0.02607498504221439</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.01273807696998119</v>
+        <v>0.0821385532617569</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.04299765825271606</v>
+        <v>0.01164260320365429</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.003296700306236744</v>
+        <v>0.0956912636756897</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.02366554364562035</v>
+        <v>0.03657880797982216</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.002715438837185502</v>
+        <v>0.09088942408561707</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.01881244964897633</v>
+        <v>0.003822937607765198</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.006897635757923126</v>
+        <v>0.04960427433252335</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.02139306999742985</v>
+        <v>0.003628951497375965</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.01789544895291328</v>
+        <v>0.163470596075058</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.007097288966178894</v>
+        <v>0.1555252522230148</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.07834503799676895</v>
+        <v>0.003872884437441826</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.1039578467607498</v>
+        <v>0.04553199931979179</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.01525241322815418</v>
+        <v>0.04545930027961731</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.08630721271038055</v>
+        <v>0.01547372061759233</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.06123889237642288</v>
+        <v>0.0342058464884758</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.03688317537307739</v>
+        <v>0.04942430928349495</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.008229677565395832</v>
+        <v>0.03523491322994232</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.05982810631394386</v>
+        <v>0.005289349239319563</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.009902561083436012</v>
+        <v>0.007236214354634285</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.05013246089220047</v>
+        <v>0.05123104527592659</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.08968914300203323</v>
+        <v>0.4725251197814941</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.1303509920835495</v>
+        <v>0.2511544823646545</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.03399936854839325</v>
+        <v>0.01780703663825989</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.04295162856578827</v>
+        <v>0.1424196362495422</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.0007153647020459175</v>
+        <v>0.05518077313899994</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.1648969054222107</v>
+        <v>0.08668035268783569</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.001269310712814331</v>
+        <v>0.005313660949468613</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.01300777681171894</v>
+        <v>0.2390341609716415</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.04215704649686813</v>
+        <v>0.008294349536299706</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.05014386773109436</v>
+        <v>0.3093514442443848</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.08476418256759644</v>
+        <v>0.4736058413982391</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.00476599857211113</v>
+        <v>0.1229735612869263</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.01033375319093466</v>
+        <v>0.2809576988220215</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.008834403939545155</v>
+        <v>0.3141095042228699</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.02575123868882656</v>
+        <v>0.03692185878753662</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.02094851620495319</v>
+        <v>0.03202152997255325</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0312189869582653</v>
+        <v>0.4120293259620667</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0905415415763855</v>
+        <v>0.03167087212204933</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1257712990045547</v>
+        <v>0.05647751688957214</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0158592090010643</v>
+        <v>0.07683198899030685</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02157375030219555</v>
+        <v>0.0632869079709053</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01010210160166025</v>
+        <v>0.3617803752422333</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0153579730540514</v>
+        <v>0.01274015661329031</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02730515971779823</v>
+        <v>0.007396966684609652</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02479975670576096</v>
+        <v>0.01704315096139908</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03060145117342472</v>
+        <v>0.287567675113678</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08719441294670105</v>
+        <v>0.02240083180367947</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1002861335873604</v>
+        <v>0.2016577422618866</v>
       </c>
       <c r="N12" t="n">
-        <v>0.03187503665685654</v>
+        <v>0.1193272694945335</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01405661553144455</v>
+        <v>0.07813151925802231</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01197614148259163</v>
+        <v>0.2986744344234467</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.03317676484584808</v>
+        <v>0.0811370313167572</v>
       </c>
       <c r="R12" t="n">
-        <v>0.04122398048639297</v>
+        <v>0.05957577750086784</v>
       </c>
       <c r="S12" t="n">
-        <v>0.008255766704678535</v>
+        <v>0.06052245199680328</v>
       </c>
       <c r="T12" t="n">
-        <v>0.007936220616102219</v>
+        <v>0.122934378683567</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01097651664167643</v>
+        <v>0.000717568676918745</v>
       </c>
       <c r="V12" t="n">
-        <v>0.018107945099473</v>
+        <v>0.05688845366239548</v>
       </c>
       <c r="W12" t="n">
-        <v>0.05987535044550896</v>
+        <v>0.1400912702083588</v>
       </c>
       <c r="X12" t="n">
-        <v>0.01055941544473171</v>
+        <v>0.06077477335929871</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.006044317968189716</v>
+        <v>0.04169543832540512</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.007697106804698706</v>
+        <v>0.008054062724113464</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01095641311258078</v>
+        <v>0.01764188520610332</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.02915488928556442</v>
+        <v>0.05512269586324692</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.02576199546456337</v>
+        <v>0.1031273454427719</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.005760876461863518</v>
+        <v>0.0001088501885533333</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.02589969709515572</v>
+        <v>0.01593105867505074</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.001960735768079758</v>
+        <v>0.02598681300878525</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.008694255724549294</v>
+        <v>0.02178504690527916</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.002833752194419503</v>
+        <v>0.02768911607563496</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.003618205897510052</v>
+        <v>0.01294009014964104</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.0162108950316906</v>
+        <v>0.02537832409143448</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.02693427540361881</v>
+        <v>0.04690762236714363</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.009708638302981853</v>
+        <v>0.03456106409430504</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.02119055017828941</v>
+        <v>0.008638396859169006</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.004847035743296146</v>
+        <v>0.05516733229160309</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.001847983454354107</v>
+        <v>0.004018325358629227</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.01730341091752052</v>
+        <v>0.03975450992584229</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.0002392296446487308</v>
+        <v>0.04298318177461624</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.005637415684759617</v>
+        <v>0.01012210920453072</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.001480379607528448</v>
+        <v>0.01868266426026821</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.01529140584170818</v>
+        <v>0.1333973556756973</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.03502984344959259</v>
+        <v>0.4179752469062805</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.05201683193445206</v>
+        <v>0.02198020741343498</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.03680077940225601</v>
+        <v>0.1386392116546631</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.02517552301287651</v>
+        <v>0.1065112426877022</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.008380608633160591</v>
+        <v>0.0121153611689806</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.007988506928086281</v>
+        <v>0.1245549470186234</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.01441771909594536</v>
+        <v>0.08439763635396957</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.01210868544876575</v>
+        <v>0.00281347194686532</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.009318063966929913</v>
+        <v>0.02670378983020782</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.003141054417937994</v>
+        <v>0.07158380746841431</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.0285361148416996</v>
+        <v>0.1447479277849197</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.04530199244618416</v>
+        <v>0.08359038829803467</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.02811845950782299</v>
+        <v>0.1220321655273438</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.04379423335194588</v>
+        <v>0.09823747724294662</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.01666578464210033</v>
+        <v>0.1510773450136185</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.004163607023656368</v>
+        <v>0.07466083765029907</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.01358786970376968</v>
+        <v>0.01739213056862354</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.01298489980399609</v>
+        <v>0.01735390350222588</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.02309616841375828</v>
+        <v>0.1442637592554092</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.02275707013905048</v>
+        <v>0.06742164492607117</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.01195533573627472</v>
+        <v>0.07014565169811249</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.02606073021888733</v>
+        <v>0.2224603891372681</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.002362115075811744</v>
+        <v>0.04600207135081291</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.005260156467556953</v>
+        <v>0.02677118591964245</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.001490231836214662</v>
+        <v>0.08280111104249954</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.003580415621399879</v>
+        <v>0.01198061648756266</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.02737183310091496</v>
+        <v>0.05871719866991043</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.01458857208490372</v>
+        <v>0.1823897659778595</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.02926382049918175</v>
+        <v>0.06204183399677277</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.03311049938201904</v>
+        <v>0.08819137513637543</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.007846676744520664</v>
+        <v>0.05149712041020393</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.03152420371770859</v>
+        <v>0.0726461187005043</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.00426092091947794</v>
+        <v>0.01485991477966309</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.01171866152435541</v>
+        <v>0.07835398614406586</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.007043692748993635</v>
+        <v>0.01822922006249428</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.03302150219678879</v>
+        <v>0.01653384044766426</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.004261975176632404</v>
+        <v>0.08622586727142334</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.01628920435905457</v>
+        <v>0.03052207641303539</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.02177540957927704</v>
+        <v>0.05092839896678925</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.004750629886984825</v>
+        <v>0.002534034196287394</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.01315418444573879</v>
+        <v>0.001170761766843498</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.004701039288192987</v>
+        <v>0.06245992332696915</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.007932820357382298</v>
+        <v>0.02076829224824905</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.008299957029521465</v>
+        <v>0.001646274933591485</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.0117286117747426</v>
+        <v>0.1150060668587685</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.01497845351696014</v>
+        <v>0.1686142832040787</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.011606365442276</v>
+        <v>0.02434060536324978</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.00875139981508255</v>
+        <v>0.008996317163109779</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.01552985981106758</v>
+        <v>0.1130455806851387</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.06144672259688377</v>
+        <v>0.05696176737546921</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.001580641022883356</v>
+        <v>0.02250057831406593</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.006368226837366819</v>
+        <v>0.01211290061473846</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.01753247529268265</v>
+        <v>0.03261710330843925</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.03085066936910152</v>
+        <v>0.02418847382068634</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.008733663707971573</v>
+        <v>0.06562357395887375</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.0172079261392355</v>
+        <v>0.05193427577614784</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.021684680134058</v>
+        <v>0.07560690492391586</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.002263714326545596</v>
+        <v>0.004191011656075716</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.01198042836040258</v>
+        <v>0.007659071125090122</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.00153407035395503</v>
+        <v>0.07142353802919388</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.006826464552432299</v>
+        <v>0.007653830572962761</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.009757176972925663</v>
+        <v>0.004475375171750784</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.0241064764559269</v>
+        <v>0.06691739708185196</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.002150929532945156</v>
+        <v>0.325165331363678</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.007977641187608242</v>
+        <v>0.07482284307479858</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.009871849790215492</v>
+        <v>0.07649575173854828</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.02390625327825546</v>
+        <v>0.05336255580186844</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.004931787960231304</v>
+        <v>0.03769854083657265</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.00976399052888155</v>
+        <v>0.05038608238101006</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.02767405286431313</v>
+        <v>0.0320807509124279</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.006429683417081833</v>
+        <v>0.04141711443662643</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.0181965958327055</v>
+        <v>0.02996387332677841</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.001685227383859456</v>
+        <v>0.06910812854766846</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.01181756798177958</v>
+        <v>0.05222035199403763</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.009528230875730515</v>
+        <v>0.02994927018880844</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.02626263722777367</v>
+        <v>0.05427943542599678</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.004049987532198429</v>
+        <v>0.0287574827671051</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.01670002564787865</v>
+        <v>0.01895634829998016</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.01307671703398228</v>
+        <v>0.002385362517088652</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.007717457599937916</v>
+        <v>0.02271934784948826</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.009481187909841537</v>
+        <v>0.02936676144599915</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.007688724435865879</v>
+        <v>0.04213711246848106</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.018940769135952</v>
+        <v>0.008668524213135242</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.01881574280560017</v>
+        <v>0.08294368535280228</v>
       </c>
       <c r="EA12" t="n">
-        <v>4.999036900699139e-05</v>
+        <v>0.04629500955343246</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.02264004945755005</v>
+        <v>0.05357307940721512</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.006597620900720358</v>
+        <v>0.008651267737150192</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.0008372767479158938</v>
+        <v>0.04639368876814842</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.009312824346125126</v>
+        <v>0.01891815848648548</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.03001588210463524</v>
+        <v>0.04493359103798866</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.02202290296554565</v>
+        <v>0.01135189924389124</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.01592893712222576</v>
+        <v>0.02323510497808456</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.03168320655822754</v>
+        <v>0.07307868450880051</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.02727188356220722</v>
+        <v>0.0148882893845439</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.02345187589526176</v>
+        <v>0.005047737620770931</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.0004583469126373529</v>
+        <v>0.06008847802877426</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.002498329384252429</v>
+        <v>0.04351184517145157</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.001523997983895242</v>
+        <v>0.005147141870111227</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.0222194567322731</v>
+        <v>0.07042951881885529</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.001176743768155575</v>
+        <v>0.02720521204173565</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.004991681780666113</v>
+        <v>0.08553650230169296</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.00835960078984499</v>
+        <v>0.07881848514080048</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.01317328307777643</v>
+        <v>0.01275178510695696</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.0006255933549255133</v>
+        <v>0.06524158269166946</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.006626814138144255</v>
+        <v>0.05062544345855713</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.003730734577402472</v>
+        <v>0.07015904784202576</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.006576890125870705</v>
+        <v>0.0128922127187252</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.02974388189613819</v>
+        <v>0.02145938389003277</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.01223837770521641</v>
+        <v>0.06024040281772614</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.01558242179453373</v>
+        <v>0.03610906377434731</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.0205298587679863</v>
+        <v>0.05784478038549423</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.003455722704529762</v>
+        <v>0.003358903806656599</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.01237417384982109</v>
+        <v>0.008943488821387291</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.002813722705468535</v>
+        <v>0.07372679561376572</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.007112276274710894</v>
+        <v>0.02106412500143051</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.007543999701738358</v>
+        <v>0.0005860504461452365</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.01935242488980293</v>
+        <v>0.0691523477435112</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.000129318330436945</v>
+        <v>0.01251340005546808</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.02374839968979359</v>
+        <v>0.02103705145418644</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.0213178489357233</v>
+        <v>0.07994979619979858</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.001206755638122559</v>
+        <v>0.07303167134523392</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.04014205187559128</v>
+        <v>0.0308922566473484</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.0009954248089343309</v>
+        <v>0.02243681810796261</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.004603863228112459</v>
+        <v>0.009359539486467838</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.009127199649810791</v>
+        <v>0.002413187175989151</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.001832729205489159</v>
+        <v>0.04145076870918274</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.02142911031842232</v>
+        <v>0.0583668127655983</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.009731351397931576</v>
+        <v>0.06209652498364449</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.004179058596491814</v>
+        <v>0.03931978344917297</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.008332488127052784</v>
+        <v>0.08071506023406982</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.02814531698822975</v>
+        <v>0.003762019332498312</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.0008548095356673002</v>
+        <v>0.06798775494098663</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.01489992626011372</v>
+        <v>0.0344778373837471</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.006019435822963715</v>
+        <v>0.03449530526995659</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.03050059825181961</v>
+        <v>0.06221781671047211</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.004422555677592754</v>
+        <v>0.07519048452377319</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.006791803054511547</v>
+        <v>0.03015079721808434</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.0009452500380575657</v>
+        <v>0.1011781394481659</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.01461265422403812</v>
+        <v>0.03028763644397259</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.009878968819975853</v>
+        <v>0.08583275973796844</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.004786843433976173</v>
+        <v>0.05176468566060066</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.003364164615049958</v>
+        <v>0.1052422747015953</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.006788524799048901</v>
+        <v>0.01237213518470526</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0002574569080024958</v>
+        <v>0.02035979554057121</v>
       </c>
       <c r="B13" t="n">
-        <v>0.002840377856045961</v>
+        <v>0.3350856006145477</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0199558325111866</v>
+        <v>0.04815386608242989</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003300879849120975</v>
+        <v>0.1102675199508667</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00828147865831852</v>
+        <v>0.07051281630992889</v>
       </c>
       <c r="F13" t="n">
-        <v>0.005024214275181293</v>
+        <v>0.0268617756664753</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002373014576733112</v>
+        <v>0.01739689894020557</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0132125923410058</v>
+        <v>0.01562019437551498</v>
       </c>
       <c r="I13" t="n">
-        <v>0.005682958755642176</v>
+        <v>0.1100106090307236</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0003822208382189274</v>
+        <v>0.03038249164819717</v>
       </c>
       <c r="K13" t="n">
-        <v>0.000486148230265826</v>
+        <v>0.2536068558692932</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01926463283598423</v>
+        <v>0.001562192686833441</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0007712925435043871</v>
+        <v>0.1082296893000603</v>
       </c>
       <c r="N13" t="n">
-        <v>0.005626983940601349</v>
+        <v>0.1079478859901428</v>
       </c>
       <c r="O13" t="n">
-        <v>0.003778801299631596</v>
+        <v>0.05074142664670944</v>
       </c>
       <c r="P13" t="n">
-        <v>0.001275547663681209</v>
+        <v>0.04321766272187233</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01331818196922541</v>
+        <v>0.04629851132631302</v>
       </c>
       <c r="R13" t="n">
-        <v>0.006748972926288843</v>
+        <v>0.09474283456802368</v>
       </c>
       <c r="S13" t="n">
-        <v>4.489165439736098e-05</v>
+        <v>0.005968877580016851</v>
       </c>
       <c r="T13" t="n">
-        <v>0.004391898401081562</v>
+        <v>0.07424578815698624</v>
       </c>
       <c r="U13" t="n">
-        <v>0.000484651536680758</v>
+        <v>0.055008415132761</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0002626550267450511</v>
+        <v>0.03829576075077057</v>
       </c>
       <c r="W13" t="n">
-        <v>5.010737368138507e-05</v>
+        <v>0.004754167050123215</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0007362097967416048</v>
+        <v>0.0550139993429184</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0004406504158396274</v>
+        <v>0.02323459275066853</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.005551583133637905</v>
+        <v>0.003244840074330568</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0001813105627661571</v>
+        <v>0.02408170141279697</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0003321143449284136</v>
+        <v>0.02849896438419819</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.001370951998978853</v>
+        <v>0.05994182080030441</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.001869124360382557</v>
+        <v>0.01068565715104342</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0008950005285441875</v>
+        <v>0.02764646708965302</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0007063598604872823</v>
+        <v>0.006209780462086201</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0006072424002923071</v>
+        <v>0.01715721189975739</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.00403778487816453</v>
+        <v>0.02014704793691635</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.001804994884878397</v>
+        <v>0.03461076691746712</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.003748399671167135</v>
+        <v>0.01365993916988373</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.0002115004317602143</v>
+        <v>0.03520119935274124</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.001769618480466306</v>
+        <v>0.03689036890864372</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.003897393122315407</v>
+        <v>0.02620916813611984</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0006432263762690127</v>
+        <v>0.007094230502843857</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.004565131384879351</v>
+        <v>0.01676273532211781</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.0009813877986744046</v>
+        <v>0.03260551393032074</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.0002706212108023465</v>
+        <v>0.01319205109030008</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.0009996785083785653</v>
+        <v>0.01150153204798698</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0005156897241249681</v>
+        <v>0.01110518630594015</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.0009388287435285747</v>
+        <v>0.02235452644526958</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.002715230453759432</v>
+        <v>0.2706342339515686</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.008682128041982651</v>
+        <v>0.01270570140331984</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.002872709650546312</v>
+        <v>0.006108895875513554</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.002139062155038118</v>
+        <v>0.01539941690862179</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.0005940832197666168</v>
+        <v>0.0108812227845192</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.0007134544430300593</v>
+        <v>0.03249221667647362</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.003246016334742308</v>
+        <v>0.01011626981198788</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.002130243927240372</v>
+        <v>0.02223019674420357</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0008197213755920529</v>
+        <v>0.01875507459044456</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0002655081916600466</v>
+        <v>0.07730141282081604</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.004561538808047771</v>
+        <v>0.05120494589209557</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.001455574296414852</v>
+        <v>0.006653555203229189</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.007776430808007717</v>
+        <v>0.09892905503511429</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.002303617307916284</v>
+        <v>0.06079233810305595</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0005247045191936195</v>
+        <v>0.00278730783611536</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.007267946843057871</v>
+        <v>0.04744256660342216</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.002979389159008861</v>
+        <v>0.0384330078959465</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0009969368111342192</v>
+        <v>0.03605088964104652</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.001566354068927467</v>
+        <v>0.07606104761362076</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.004214467015117407</v>
+        <v>0.03130130469799042</v>
       </c>
       <c r="BO13" t="n">
-        <v>4.56422712886706e-05</v>
+        <v>0.002813022583723068</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.002317153150215745</v>
+        <v>0.1209314465522766</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.001168088987469673</v>
+        <v>0.06548583507537842</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.001898776856251061</v>
+        <v>0.006466974504292011</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.002601376734673977</v>
+        <v>0.02405814826488495</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.0006368879694491625</v>
+        <v>0.002571171149611473</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.0002528197364881635</v>
+        <v>0.01235225144773722</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.001647076103836298</v>
+        <v>0.1519585400819778</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.00613818597048521</v>
+        <v>0.03065736964344978</v>
       </c>
       <c r="BX13" t="n">
-        <v>7.409770478261635e-05</v>
+        <v>0.02832235395908356</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.001771152950823307</v>
+        <v>0.03136833012104034</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.002378069097176194</v>
+        <v>0.06879284977912903</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.001099810120649636</v>
+        <v>0.04126575961709023</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.00423679081723094</v>
+        <v>0.00241178460419178</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.0005007125437259674</v>
+        <v>0.03639152273535728</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.0004436575109139085</v>
+        <v>0.004235429689288139</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.0008586830226704478</v>
+        <v>0.06895302981138229</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.00370412040501833</v>
+        <v>0.003615407971665263</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0002463514392729849</v>
+        <v>0.02904846891760826</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.001703362446278334</v>
+        <v>0.01200591959059238</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.001065913937054574</v>
+        <v>0.004493244923651218</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.0005428478471003473</v>
+        <v>0.004288928583264351</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.001333654392510653</v>
+        <v>0.009773275814950466</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.001007431419566274</v>
+        <v>0.03164901584386826</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.0004982132231816649</v>
+        <v>0.09101311862468719</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.002724092919379473</v>
+        <v>0.1222031861543655</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.001368007971905172</v>
+        <v>0.004889439791440964</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.0001525752304587513</v>
+        <v>0.02470576390624046</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.00404129596427083</v>
+        <v>0.06852263957262039</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.003068521618843079</v>
+        <v>0.01887046918272972</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.001984015805646777</v>
+        <v>0.02075250074267387</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.0004338609287515283</v>
+        <v>0.07878988981246948</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.003071618266403675</v>
+        <v>0.001391325145959854</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.0001097516505979002</v>
+        <v>0.003733065677806735</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.000697046983987093</v>
+        <v>0.05751220881938934</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.003990855067968369</v>
+        <v>0.01651005633175373</v>
       </c>
       <c r="CY13" t="n">
-        <v>3.912039028364234e-05</v>
+        <v>0.03711710125207901</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.003360305679962039</v>
+        <v>0.004728430416435003</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.0008932009804993868</v>
+        <v>0.01306977961212397</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.0004711652873083949</v>
+        <v>0.005489956121891737</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.001556800911203027</v>
+        <v>0.003866754472255707</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.000421250268118456</v>
+        <v>0.02449613995850086</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.003138754284009337</v>
+        <v>0.05405046418309212</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.003031555097550154</v>
+        <v>0.1820785254240036</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.003048861399292946</v>
+        <v>0.04251736029982567</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.001436109188944101</v>
+        <v>0.1137884259223938</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.001882020151242614</v>
+        <v>0.01565367169678211</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.001286993268877268</v>
+        <v>0.01222987659275532</v>
       </c>
       <c r="DK13" t="n">
-        <v>7.278476550709456e-05</v>
+        <v>0.102142333984375</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.001955906394869089</v>
+        <v>0.02774490229785442</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.0004208975005894899</v>
+        <v>0.04336804524064064</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.0003558270982466638</v>
+        <v>0.02956178039312363</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.0001483902451582253</v>
+        <v>0.0387343093752861</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.0002399685326963663</v>
+        <v>0.03551370650529861</v>
       </c>
       <c r="DQ13" t="n">
-        <v>3.449711948633194e-05</v>
+        <v>0.02975969389081001</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.001872892840765417</v>
+        <v>0.02425025403499603</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.001764537882991135</v>
+        <v>0.01233544293791056</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.0005928212194703519</v>
+        <v>0.04764612764120102</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.002334293909370899</v>
+        <v>0.006896441802382469</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.0001714757236186415</v>
+        <v>0.01196455396711826</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.001049805665388703</v>
+        <v>0.0211947001516819</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.0005969039048068225</v>
+        <v>0.02717102132737637</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.001661712420172989</v>
+        <v>0.02085299603641033</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.002261729445308447</v>
+        <v>0.04624374583363533</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.001236124546267092</v>
+        <v>0.053998913615942</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.0002937951066996902</v>
+        <v>0.01304395962506533</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.0006452459492720664</v>
+        <v>0.03956753015518188</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.001370221260003746</v>
+        <v>0.03259143605828285</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.0007789619266986847</v>
+        <v>0.01880100555717945</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.002703852253034711</v>
+        <v>0.00834253802895546</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.001831140834838152</v>
+        <v>0.01171031780540943</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.003745506517589092</v>
+        <v>0.003957452718168497</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0007464719237759709</v>
+        <v>0.02420861274003983</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.001472164527513087</v>
+        <v>0.01476518902927637</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.002665829844772816</v>
+        <v>0.005709502846002579</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.0008846060372889042</v>
+        <v>0.02181311324238777</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.003173442790284753</v>
+        <v>0.007843027822673321</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.001291727647185326</v>
+        <v>0.03305971249938011</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.0001935727195814252</v>
+        <v>0.03245814144611359</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.002239976311102509</v>
+        <v>0.03796491771936417</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.001653749030083418</v>
+        <v>0.02512296289205551</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.000796886277385056</v>
+        <v>0.03146953508257866</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.001264868420548737</v>
+        <v>0.02343419194221497</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.0001277113042306155</v>
+        <v>0.04360828548669815</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.001661966205574572</v>
+        <v>0.02428177930414677</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.0008770086569711566</v>
+        <v>0.03071718104183674</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.002450302243232727</v>
+        <v>0.0188586637377739</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.0009596581803634763</v>
+        <v>0.0004058233462274075</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.0004105258558411151</v>
+        <v>0.06357016414403915</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.003976731561124325</v>
+        <v>0.006716723553836346</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0005971939535811543</v>
+        <v>0.03132712841033936</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.002814004430547357</v>
+        <v>0.006032389588654041</v>
       </c>
       <c r="FC13" t="n">
-        <v>6.589708209503442e-05</v>
+        <v>0.02056404203176498</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.0003520322788972408</v>
+        <v>0.008249546401202679</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.002087467582896352</v>
+        <v>0.01058747712522745</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.0006108250818215311</v>
+        <v>0.02203674986958504</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.001546382089145482</v>
+        <v>0.01899645291268826</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.0006648771231994033</v>
+        <v>0.03544459119439125</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.003294870024546981</v>
+        <v>0.002488539088517427</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.002692610258236527</v>
+        <v>0.0199850108474493</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.001697532599791884</v>
+        <v>0.03599778562784195</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.002092784736305475</v>
+        <v>0.009627986699342728</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.002889303956180811</v>
+        <v>0.02092187851667404</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.0004750813823193312</v>
+        <v>0.01895917020738125</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.0001430998672731221</v>
+        <v>0.04937678202986717</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.005014156922698021</v>
+        <v>0.02519509382545948</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.005565800704061985</v>
+        <v>0.02334164828062057</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.004173680208623409</v>
+        <v>0.05272243544459343</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.001249445136636496</v>
+        <v>0.03112149983644485</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.001977009698748589</v>
+        <v>0.04976264387369156</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.002488881815224886</v>
+        <v>0.04649670049548149</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.001082540955394506</v>
+        <v>0.00138571672141552</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.0006043012836016715</v>
+        <v>0.01417579129338264</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.00232627778314054</v>
+        <v>0.01744465902447701</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.001559788826853037</v>
+        <v>0.01765574142336845</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.0004034360754303634</v>
+        <v>0.08075903356075287</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.001263062003999949</v>
+        <v>0.03268879652023315</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.0003575452428776771</v>
+        <v>0.03718594834208488</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.001871112501248717</v>
+        <v>0.06525837630033493</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.003332545515149832</v>
+        <v>0.04364141076803207</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.000456618086900562</v>
+        <v>0.04629956185817719</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.001502132741734385</v>
+        <v>0.01245541125535965</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.001370384241454303</v>
+        <v>0.001057294197380543</v>
       </c>
     </row>
     <row r="14">
@@ -8401,1709 +8401,1709 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.01977255940437317</v>
+        <v>0.07736712694168091</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02371160499751568</v>
+        <v>0.535087525844574</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4036492109298706</v>
+        <v>0.5887497663497925</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08441422879695892</v>
+        <v>0.200050950050354</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1628059148788452</v>
+        <v>0.4043194055557251</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6743207573890686</v>
+        <v>0.1701971590518951</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1682939231395721</v>
+        <v>0.2252794951200485</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1150741875171661</v>
+        <v>0.3002480566501617</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1224164217710495</v>
+        <v>0.3935266137123108</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01921574212610722</v>
+        <v>0.1303516328334808</v>
       </c>
       <c r="K15" t="n">
-        <v>0.053437240421772</v>
+        <v>0.4743126034736633</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3858598470687866</v>
+        <v>0.3461591005325317</v>
       </c>
       <c r="M15" t="n">
-        <v>0.05563661828637123</v>
+        <v>0.1262057274580002</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1330844163894653</v>
+        <v>0.4678476750850677</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7232808470726013</v>
+        <v>0.20347860455513</v>
       </c>
       <c r="P15" t="n">
-        <v>0.07439576089382172</v>
+        <v>0.1361256837844849</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.05001236870884895</v>
+        <v>0.2301888018846512</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1731377989053726</v>
+        <v>0.3490595519542694</v>
       </c>
       <c r="S15" t="n">
-        <v>0.08491897583007812</v>
+        <v>0.05930811539292336</v>
       </c>
       <c r="T15" t="n">
-        <v>0.03015469573438168</v>
+        <v>0.05001415312290192</v>
       </c>
       <c r="U15" t="n">
-        <v>0.005597942974418402</v>
+        <v>0.03093219175934792</v>
       </c>
       <c r="V15" t="n">
-        <v>0.001860823482275009</v>
+        <v>0.2383191585540771</v>
       </c>
       <c r="W15" t="n">
-        <v>0.006442442070692778</v>
+        <v>0.2092477381229401</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1152892634272575</v>
+        <v>0.1023428291082382</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.04518487304449081</v>
+        <v>0.002772317500784993</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.102541983127594</v>
+        <v>0.156458392739296</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.003308115527033806</v>
+        <v>0.06707453727722168</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.03036068007349968</v>
+        <v>0.1077054888010025</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.09810943901538849</v>
+        <v>0.1347696185112</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.02102254703640938</v>
+        <v>0.0006769020110368729</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.02204072661697865</v>
+        <v>0.08565618097782135</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.3132323026657104</v>
+        <v>0.1237465143203735</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.02487087622284889</v>
+        <v>0.2401780039072037</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.08975563943386078</v>
+        <v>0.05884630978107452</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.1303160190582275</v>
+        <v>0.08949511498212814</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.1734888851642609</v>
+        <v>0.1269604414701462</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.01625161431729794</v>
+        <v>0.01396337896585464</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.007967759855091572</v>
+        <v>0.2671281397342682</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.1841258257627487</v>
+        <v>0.06678225100040436</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.003932117018848658</v>
+        <v>0.08147702366113663</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.05481232702732086</v>
+        <v>0.0295839998871088</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.06293076276779175</v>
+        <v>0.1899004578590393</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.0204339511692524</v>
+        <v>0.005856219679117203</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.0519719123840332</v>
+        <v>0.05817036330699921</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.03145900368690491</v>
+        <v>0.08128494024276733</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.04942089691758156</v>
+        <v>0.1178359985351562</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.007674149237573147</v>
+        <v>0.2896538376808167</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.1959554255008698</v>
+        <v>0.3818565607070923</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.1342036575078964</v>
+        <v>0.06650618463754654</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.06631066650152206</v>
+        <v>0.2499396353960037</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.2619971036911011</v>
+        <v>0.1582468748092651</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.02006241492927074</v>
+        <v>0.05589266121387482</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.0435916930437088</v>
+        <v>0.1726583689451218</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.002992356196045876</v>
+        <v>0.02567137964069843</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.02248761057853699</v>
+        <v>0.000217018648982048</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.001774960430338979</v>
+        <v>0.123107522726059</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.01067782193422318</v>
+        <v>0.0213792659342289</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.03113913536071777</v>
+        <v>0.1793335825204849</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.19098000228405</v>
+        <v>0.3523169755935669</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.2011143118143082</v>
+        <v>0.09169456362724304</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.1507576256990433</v>
+        <v>0.1228909716010094</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.004189521074295044</v>
+        <v>0.1179648637771606</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.006765257567167282</v>
+        <v>0.1768305897712708</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.003593009430915117</v>
+        <v>0.1463725715875626</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.03975159674882889</v>
+        <v>0.09029114246368408</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.04872442036867142</v>
+        <v>0.0502593033015728</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.02753426507115364</v>
+        <v>0.1835523843765259</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.002123761456459761</v>
+        <v>0.02256863564252853</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.04524964839220047</v>
+        <v>0.09517841786146164</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.007421373389661312</v>
+        <v>0.1409980654716492</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.07398681342601776</v>
+        <v>0.190943643450737</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.05381378531455994</v>
+        <v>0.09726282954216003</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.04368320852518082</v>
+        <v>0.1108664572238922</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.08441223949193954</v>
+        <v>0.2310057282447815</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.1176150813698769</v>
+        <v>0.3049452900886536</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.04136371612548828</v>
+        <v>0.06985247135162354</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.04807770252227783</v>
+        <v>0.1112186685204506</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.2292714715003967</v>
+        <v>0.067393459379673</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.08138914406299591</v>
+        <v>0.0554109513759613</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.02835609391331673</v>
+        <v>0.1288936138153076</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.007567811757326126</v>
+        <v>0.07703884690999985</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.009737733751535416</v>
+        <v>0.0182137805968523</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.02721482701599598</v>
+        <v>0.0643598884344101</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.07612703740596771</v>
+        <v>0.07714105397462845</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.009893462061882019</v>
+        <v>0.1252313554286957</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.02419578656554222</v>
+        <v>0.1102650165557861</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.1376903355121613</v>
+        <v>0.009529094211757183</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.01006991043686867</v>
+        <v>0.01494037266820669</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.01457896269857883</v>
+        <v>0.08851441740989685</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.007278062403202057</v>
+        <v>0.05716395750641823</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.07675108313560486</v>
+        <v>0.004291091114282608</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.01057692244648933</v>
+        <v>0.09004276245832443</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.1924738734960556</v>
+        <v>0.04572383314371109</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.06012245267629623</v>
+        <v>0.2893356382846832</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.1440399587154388</v>
+        <v>0.3446162343025208</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.07717917859554291</v>
+        <v>0.07156749814748764</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.08173242956399918</v>
+        <v>0.2097762525081635</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.03966999799013138</v>
+        <v>0.01701156049966812</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.116450697183609</v>
+        <v>0.09595626592636108</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.02706630527973175</v>
+        <v>0.03542829677462578</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.02696469612419605</v>
+        <v>0.02998174354434013</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.07145571708679199</v>
+        <v>0.07213331013917923</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.01668176427483559</v>
+        <v>0.07379376888275146</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.07613266259431839</v>
+        <v>0.1116764545440674</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.1326227486133575</v>
+        <v>0.05046318843960762</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.01413259468972683</v>
+        <v>0.004727263003587723</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.04992839321494102</v>
+        <v>0.07085932791233063</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.007760436274111271</v>
+        <v>0.1000500693917274</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.01057872176170349</v>
+        <v>0.1906093209981918</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.09256251901388168</v>
+        <v>0.0612415075302124</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.08694148063659668</v>
+        <v>0.1004934906959534</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.1362446397542953</v>
+        <v>0.248759388923645</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.1751023828983307</v>
+        <v>0.110139288008213</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.03796859458088875</v>
+        <v>0.2327811568975449</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.1263347268104553</v>
+        <v>0.1097374856472015</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.1468549072742462</v>
+        <v>0.2444190084934235</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.09384863078594208</v>
+        <v>0.1119900345802307</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.002633430063724518</v>
+        <v>0.06178105250000954</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.03501555696129799</v>
+        <v>0.05457401275634766</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.0326872207224369</v>
+        <v>0.1456043124198914</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.01604951918125153</v>
+        <v>0.1563101261854172</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.06313850730657578</v>
+        <v>0.1006762832403183</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.01905112341046333</v>
+        <v>0.1354936361312866</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.04450621455907822</v>
+        <v>0.09371277689933777</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.10075943171978</v>
+        <v>0.1538990288972855</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.03954929858446121</v>
+        <v>0.1178280860185623</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.07464819401502609</v>
+        <v>0.04805527627468109</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.007186779752373695</v>
+        <v>0.041342593729496</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.003996999002993107</v>
+        <v>0.1128605455160141</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.0164668969810009</v>
+        <v>0.02738763764500618</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.01025587320327759</v>
+        <v>0.03967134654521942</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.001599062234163284</v>
+        <v>0.1536790430545807</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.07195503264665604</v>
+        <v>0.06769546866416931</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.1335637420415878</v>
+        <v>0.1273731738328934</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.08211483806371689</v>
+        <v>0.03432532027363777</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.005232079885900021</v>
+        <v>0.02809175848960876</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.06587015092372894</v>
+        <v>0.07098209112882614</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.07801869511604309</v>
+        <v>0.03143056482076645</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.0009235795587301254</v>
+        <v>0.01256189495325089</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.104370579123497</v>
+        <v>0.1771583706140518</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.1517735570669174</v>
+        <v>0.08864527940750122</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.01150516793131828</v>
+        <v>0.04325386881828308</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.03461360931396484</v>
+        <v>0.01442631334066391</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.05422330647706985</v>
+        <v>0.1109707579016685</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.01295625604689121</v>
+        <v>0.04065340757369995</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.01466301828622818</v>
+        <v>0.03836233541369438</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.001910665072500706</v>
+        <v>0.04265549778938293</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.05317997187376022</v>
+        <v>0.05444993823766708</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.04689336940646172</v>
+        <v>0.07572041451931</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.1457005590200424</v>
+        <v>0.04760422557592392</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.08594614267349243</v>
+        <v>0.08828632533550262</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.07994382083415985</v>
+        <v>0.1342185139656067</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.07990266382694244</v>
+        <v>0.3141079843044281</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.006580071523785591</v>
+        <v>0.0194186195731163</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.04631611704826355</v>
+        <v>0.04210305213928223</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.06924356520175934</v>
+        <v>0.06396855413913727</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.01140817906707525</v>
+        <v>0.1275532841682434</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.05954138189554214</v>
+        <v>0.1058608517050743</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.1109527051448822</v>
+        <v>0.05718984827399254</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.01387874037027359</v>
+        <v>0.02541899494826794</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.05054612457752228</v>
+        <v>0.1244166418910027</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.009588256478309631</v>
+        <v>0.03913624212145805</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.09130257368087769</v>
+        <v>0.005319420248270035</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.01492749899625778</v>
+        <v>0.09458860009908676</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.07692398875951767</v>
+        <v>0.1034539267420769</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.04181014373898506</v>
+        <v>0.04843055084347725</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.04016168788075447</v>
+        <v>0.07278575748205185</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.01718180999159813</v>
+        <v>0.01954059675335884</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.1210103034973145</v>
+        <v>0.2161252349615097</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.03591099753975868</v>
+        <v>0.1019642204046249</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.07689572870731354</v>
+        <v>0.130418598651886</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.2928625047206879</v>
+        <v>0.08288805931806564</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.04983512684702873</v>
+        <v>0.005262302234768867</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.1497774869203568</v>
+        <v>0.140032172203064</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.1578012555837631</v>
+        <v>0.2098635137081146</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.05499991774559021</v>
+        <v>0.1955044120550156</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.2438554465770721</v>
+        <v>0.02928456850349903</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.02727530524134636</v>
+        <v>0.21839839220047</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.05810569226741791</v>
+        <v>0.2366896569728851</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.09844014048576355</v>
+        <v>0.06669491529464722</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.05267853289842606</v>
+        <v>0.05754196271300316</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.0246247686445713</v>
+        <v>0.1460489630699158</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.01799682714045048</v>
+        <v>0.02732955291867256</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.06043359637260437</v>
+        <v>0.1176359057426453</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.07458514720201492</v>
+        <v>0.04518990591168404</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.02186635881662369</v>
+        <v>0.1283501237630844</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.03693366050720215</v>
+        <v>0.1664988249540329</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.2257201820611954</v>
+        <v>0.4628685712814331</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.08657059818506241</v>
+        <v>0.00286285113543272</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.01505668833851814</v>
+        <v>0.0002468930324539542</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03949874639511108</v>
+        <v>0.002462376840412617</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0849129855632782</v>
+        <v>0.0002888723684009165</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1196523755788803</v>
+        <v>0.0007935849134810269</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1162381246685982</v>
+        <v>0.0006208957638591528</v>
       </c>
       <c r="F16" t="n">
-        <v>0.331066220998764</v>
+        <v>0.001208536792546511</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1204304769635201</v>
+        <v>0.0002334644959773868</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4362257719039917</v>
+        <v>0.0007758846622891724</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08379903435707092</v>
+        <v>0.0002458417729940265</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01512675639241934</v>
+        <v>0.0003788500907830894</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01359250489622355</v>
+        <v>0.002387359039857984</v>
       </c>
       <c r="L16" t="n">
-        <v>0.09281900525093079</v>
+        <v>8.485480793751776e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1256476640701294</v>
+        <v>0.0004764671029988676</v>
       </c>
       <c r="N16" t="n">
-        <v>0.09791960567235947</v>
+        <v>2.368018613196909e-06</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3078832924365997</v>
+        <v>0.001334661967121065</v>
       </c>
       <c r="P16" t="n">
-        <v>0.07699800282716751</v>
+        <v>0.0001368097146041691</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4183627665042877</v>
+        <v>0.0002263708738610148</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1278112828731537</v>
+        <v>0.0001052419029292651</v>
       </c>
       <c r="S16" t="n">
-        <v>0.002654795534908772</v>
+        <v>5.646409772452898e-05</v>
       </c>
       <c r="T16" t="n">
-        <v>0.006315396632999182</v>
+        <v>0.0002519271220080554</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003603218123316765</v>
+        <v>5.656799476128072e-05</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0006971615366637707</v>
+        <v>0.0003955483552999794</v>
       </c>
       <c r="W16" t="n">
-        <v>0.04982370883226395</v>
+        <v>0.000241660134634003</v>
       </c>
       <c r="X16" t="n">
-        <v>0.07866348326206207</v>
+        <v>1.874908775789663e-06</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.03480987995862961</v>
+        <v>3.614717570599169e-06</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.04641111567616463</v>
+        <v>0.0002850081073120236</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01303444616496563</v>
+        <v>5.585330654866993e-05</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.05510644614696503</v>
+        <v>0.0001105003320844844</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.05959487706422806</v>
+        <v>0.0001465787354391068</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.02172401547431946</v>
+        <v>0.0001093443715944886</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.04179773852229118</v>
+        <v>0.0001442198699805886</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.1377034187316895</v>
+        <v>0.0001729884825181216</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.004746574908494949</v>
+        <v>7.194955833256245e-05</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1466929763555527</v>
+        <v>5.454168785945512e-05</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.04947450384497643</v>
+        <v>0.0002295021404279396</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.02849553339183331</v>
+        <v>0.0001716510305413976</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.01159737631678581</v>
+        <v>0.0004168377490714192</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.02530840039253235</v>
+        <v>0.0001720565196592361</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.06294912844896317</v>
+        <v>1.441486438125139e-05</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.006609737873077393</v>
+        <v>3.464408655418083e-05</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.1345714181661606</v>
+        <v>0.0001383631170028821</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.0412275455892086</v>
+        <v>0.0003798496327362955</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.01473221648484468</v>
+        <v>0.0001226677850354463</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.03265384584665298</v>
+        <v>0.0002224703202955425</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.01589512825012207</v>
+        <v>0.0002587616036180407</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.05090641230344772</v>
+        <v>0.000120211741887033</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.07398563623428345</v>
+        <v>0.001344235381111503</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.04102315381169319</v>
+        <v>0.0003991677949670702</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.03442829474806786</v>
+        <v>0.0001528371503809467</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.05198535695672035</v>
+        <v>0.0003512547991704196</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.207934781908989</v>
+        <v>0.0004045859386678785</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.008312626741826534</v>
+        <v>0.0002059527614619583</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.1808570176362991</v>
+        <v>0.000307410373352468</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.01338015217334032</v>
+        <v>9.115110151469707e-05</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.007564042694866657</v>
+        <v>0.0001469721464673057</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.02853226661682129</v>
+        <v>0.0006226036930456758</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.04448975250124931</v>
+        <v>0.0007464677910320461</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.08684153854846954</v>
+        <v>1.437151695427019e-05</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.06154709681868553</v>
+        <v>5.166177288629115e-05</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.03908891230821609</v>
+        <v>0.0003403870505280793</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.1102324798703194</v>
+        <v>0.0002590058138594031</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.1085169985890388</v>
+        <v>0.000123902180348523</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.02589987963438034</v>
+        <v>7.990666199475527e-05</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.02450641244649887</v>
+        <v>9.24554406083189e-05</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.01516787987202406</v>
+        <v>0.0002965685271192342</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.02348862774670124</v>
+        <v>0.0003057034045923501</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.004693303722888231</v>
+        <v>7.798878505127504e-05</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.002428604988381267</v>
+        <v>0.0001976917556021363</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.01945846527814865</v>
+        <v>8.641777094453573e-05</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.09178699553012848</v>
+        <v>0.0001835443690652028</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.02287536300718784</v>
+        <v>0.0001439315674360842</v>
       </c>
       <c r="BT16" t="n">
-        <v>0.03668621182441711</v>
+        <v>0.0003722895635291934</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.03367425501346588</v>
+        <v>7.678634574403986e-06</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.002045093104243279</v>
+        <v>0.0008095044177025557</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.0237012542784214</v>
+        <v>0.0002033750643022358</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.01859995350241661</v>
+        <v>6.183474033605307e-05</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.05454319715499878</v>
+        <v>0.0001381319889333099</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.08845701813697815</v>
+        <v>0.0002849657903425395</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.05088411271572113</v>
+        <v>4.560423985822126e-05</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.1418155282735825</v>
+        <v>0.0001346895151073113</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.02772294729948044</v>
+        <v>1.107275238609873e-05</v>
       </c>
       <c r="CD16" t="n">
-        <v>0.0225577037781477</v>
+        <v>9.571576811140403e-05</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.05536834895610809</v>
+        <v>0.0004641395935323089</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.0241200365126133</v>
+        <v>0.0001657993707340211</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.03442268818616867</v>
+        <v>0.0001382129994453862</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.03286227956414223</v>
+        <v>8.562512812204659e-05</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.05599704384803772</v>
+        <v>8.086537854978815e-05</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0.0161428265273571</v>
+        <v>0.0001545588311273605</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.06900317966938019</v>
+        <v>0.000182122370461002</v>
       </c>
       <c r="CL16" t="n">
-        <v>0.005746034905314445</v>
+        <v>0.0001251114736078307</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.06733445078134537</v>
+        <v>0.0006403104634955525</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.02613922953605652</v>
+        <v>0.0002862589317373931</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.02739433385431767</v>
+        <v>2.595136174932122e-05</v>
       </c>
       <c r="CP16" t="n">
-        <v>0.035494364798069</v>
+        <v>0.0004036907339468598</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.09520992636680603</v>
+        <v>0.0003997112798970193</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.05362766608595848</v>
+        <v>0.0006628257688134909</v>
       </c>
       <c r="CS16" t="n">
-        <v>0.0165264718234539</v>
+        <v>0.0004188479506410658</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.08221659064292908</v>
+        <v>0.0002415268972981721</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.07134108990430832</v>
+        <v>1.913347477966454e-05</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.02496791444718838</v>
+        <v>9.289983427152038e-05</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.07459495961666107</v>
+        <v>0.0004504345415625721</v>
       </c>
       <c r="CX16" t="n">
-        <v>0.01992633193731308</v>
+        <v>0.0001951318845385686</v>
       </c>
       <c r="CY16" t="n">
-        <v>0.02725201100111008</v>
+        <v>0.0002461093536112458</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.03642638400197029</v>
+        <v>7.395417924271896e-05</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.06011711061000824</v>
+        <v>0.0001066484546754509</v>
       </c>
       <c r="DB16" t="n">
-        <v>0.00730302557349205</v>
+        <v>0.0001471024006605148</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.09677640348672867</v>
+        <v>0.0002738381735980511</v>
       </c>
       <c r="DD16" t="n">
-        <v>0.01066130772233009</v>
+        <v>0.0001074417523341253</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.1264190971851349</v>
+        <v>0.0002125453902408481</v>
       </c>
       <c r="DF16" t="n">
-        <v>0.1092697903513908</v>
+        <v>0.0001897940674098209</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.00361575884744525</v>
+        <v>9.130072612606455e-06</v>
       </c>
       <c r="DH16" t="n">
-        <v>0.02321983501315117</v>
+        <v>0.0006803912692703307</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.0115800891071558</v>
+        <v>0.001022580312564969</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.05026919767260551</v>
+        <v>0.0002368215064052492</v>
       </c>
       <c r="DK16" t="n">
-        <v>0.07290270924568176</v>
+        <v>0.0001374108251184225</v>
       </c>
       <c r="DL16" t="n">
-        <v>0.005670394748449326</v>
+        <v>0.0003212492156308144</v>
       </c>
       <c r="DM16" t="n">
-        <v>0.08025142550468445</v>
+        <v>0.0004086460685357451</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.0195712223649025</v>
+        <v>0.0001542673853691667</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.01406743377447128</v>
+        <v>0.0002969201887026429</v>
       </c>
       <c r="DP16" t="n">
-        <v>0.006782474927604198</v>
+        <v>0.000156627400428988</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0.02836715243756771</v>
+        <v>0.0001621415140107274</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.006890296004712582</v>
+        <v>0.0001479436905356124</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.06226388365030289</v>
+        <v>0.0002006086579058319</v>
       </c>
       <c r="DT16" t="n">
-        <v>0.03674041107296944</v>
+        <v>8.497626549797133e-05</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.003208993701264262</v>
+        <v>0.0003053632099181414</v>
       </c>
       <c r="DV16" t="n">
-        <v>0.001036073081195354</v>
+        <v>6.40998114249669e-05</v>
       </c>
       <c r="DW16" t="n">
-        <v>0.03149677067995071</v>
+        <v>3.495149576338008e-05</v>
       </c>
       <c r="DX16" t="n">
-        <v>0.001201642444357276</v>
+        <v>0.0002653342671692371</v>
       </c>
       <c r="DY16" t="n">
-        <v>0.02460292167961597</v>
+        <v>0.0001602985139470547</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0.02747511491179466</v>
+        <v>0.0001428979885531589</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.01044121570885181</v>
+        <v>0.0002340428764000535</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.004313893616199493</v>
+        <v>1.812467235140502e-05</v>
       </c>
       <c r="EC16" t="n">
-        <v>0.003713017096742988</v>
+        <v>0.0001301860029343516</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.01130901463329792</v>
+        <v>5.744284862885252e-06</v>
       </c>
       <c r="EE16" t="n">
-        <v>0.0180844608694315</v>
+        <v>0.0002246953081339598</v>
       </c>
       <c r="EF16" t="n">
-        <v>0.1017913818359375</v>
+        <v>0.0003748093149624765</v>
       </c>
       <c r="EG16" t="n">
-        <v>0.06194030866026878</v>
+        <v>0.0006079634185880423</v>
       </c>
       <c r="EH16" t="n">
-        <v>0.01281175762414932</v>
+        <v>0.0002631340175867081</v>
       </c>
       <c r="EI16" t="n">
-        <v>0.03849892318248749</v>
+        <v>0.000163187287398614</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.009863629937171936</v>
+        <v>2.604399924166501e-05</v>
       </c>
       <c r="EK16" t="n">
-        <v>0.03019344434142113</v>
+        <v>0.0001393653947161511</v>
       </c>
       <c r="EL16" t="n">
-        <v>0.007301854901015759</v>
+        <v>0.0001136658975156024</v>
       </c>
       <c r="EM16" t="n">
-        <v>0.1003083437681198</v>
+        <v>0.0001300689909840003</v>
       </c>
       <c r="EN16" t="n">
-        <v>0.02143532410264015</v>
+        <v>3.0156945285853e-05</v>
       </c>
       <c r="EO16" t="n">
-        <v>0.005892714485526085</v>
+        <v>0.0001021370117086917</v>
       </c>
       <c r="EP16" t="n">
-        <v>0.06478842347860336</v>
+        <v>0.0001423398207407445</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.02743698284029961</v>
+        <v>0.0002353079325985163</v>
       </c>
       <c r="ER16" t="n">
-        <v>0.0393824577331543</v>
+        <v>0.0002456329530104995</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.07264117151498795</v>
+        <v>0.0001111038072849624</v>
       </c>
       <c r="ET16" t="n">
-        <v>0.02930692210793495</v>
+        <v>0.0003419909626245499</v>
       </c>
       <c r="EU16" t="n">
-        <v>0.01447741501033306</v>
+        <v>0.0002720812044572085</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.08703424036502838</v>
+        <v>0.0004808931553270668</v>
       </c>
       <c r="EW16" t="n">
-        <v>0.02947194129228592</v>
+        <v>0.0001157431615865789</v>
       </c>
       <c r="EX16" t="n">
-        <v>0.03309503570199013</v>
+        <v>0.0001384201023029163</v>
       </c>
       <c r="EY16" t="n">
-        <v>0.07464523613452911</v>
+        <v>0.0004293781530577689</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0.02479209005832672</v>
+        <v>0.0001724301837384701</v>
       </c>
       <c r="FA16" t="n">
-        <v>0.03745099157094955</v>
+        <v>0.000105387982330285</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.04418887943029404</v>
+        <v>6.814111111452803e-05</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.05703984200954437</v>
+        <v>8.64110843394883e-05</v>
       </c>
       <c r="FD16" t="n">
-        <v>0.01850247383117676</v>
+        <v>0.0001853363064583391</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.1026009321212769</v>
+        <v>0.000252633064519614</v>
       </c>
       <c r="FF16" t="n">
-        <v>0.001330967992544174</v>
+        <v>0.0001310857769567519</v>
       </c>
       <c r="FG16" t="n">
-        <v>0.01572830229997635</v>
+        <v>0.0001353069819742814</v>
       </c>
       <c r="FH16" t="n">
-        <v>0.06460107117891312</v>
+        <v>0.0001288517960347235</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.04084153473377228</v>
+        <v>0.000339621416060254</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0.04143364727497101</v>
+        <v>0.0002570674987509847</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.007294983137398958</v>
+        <v>0.0002118379343301058</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.01101348828524351</v>
+        <v>0.0003151168348267674</v>
       </c>
       <c r="FM16" t="n">
-        <v>0.002041711937636137</v>
+        <v>2.921481791418046e-05</v>
       </c>
       <c r="FN16" t="n">
-        <v>0.01974191516637802</v>
+        <v>0.0001521008380223066</v>
       </c>
       <c r="FO16" t="n">
-        <v>0.0342121496796608</v>
+        <v>0.0001383402559440583</v>
       </c>
       <c r="FP16" t="n">
-        <v>0.05935020744800568</v>
+        <v>0.0003727457951754332</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0.0265468917787075</v>
+        <v>5.793038144474849e-05</v>
       </c>
       <c r="FR16" t="n">
-        <v>0.03654291853308678</v>
+        <v>0.0005804885877296329</v>
       </c>
       <c r="FS16" t="n">
-        <v>0.0819515660405159</v>
+        <v>0.0001603289856575429</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.01197557151317596</v>
+        <v>0.000233063503401354</v>
       </c>
       <c r="FU16" t="n">
-        <v>0.1378495842218399</v>
+        <v>0.0001332109386567026</v>
       </c>
       <c r="FV16" t="n">
-        <v>0.02826540730893612</v>
+        <v>8.30375065561384e-05</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.07928016781806946</v>
+        <v>0.0001503016101196408</v>
       </c>
       <c r="FX16" t="n">
-        <v>0.05215473473072052</v>
+        <v>3.184549132129177e-05</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.03260808438062668</v>
+        <v>0.0004414279828779399</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0.02339811250567436</v>
+        <v>0.0002065214066533372</v>
       </c>
       <c r="GA16" t="n">
-        <v>0.02494173869490623</v>
+        <v>0.0001473756419727579</v>
       </c>
       <c r="GB16" t="n">
-        <v>0.01522209029644728</v>
+        <v>2.710589615162462e-05</v>
       </c>
       <c r="GC16" t="n">
-        <v>0.01022334769368172</v>
+        <v>9.128890087595209e-05</v>
       </c>
       <c r="GD16" t="n">
-        <v>0.02564891800284386</v>
+        <v>0.0002630789240356535</v>
       </c>
       <c r="GE16" t="n">
-        <v>0.04234454035758972</v>
+        <v>0.0003859320131596178</v>
       </c>
       <c r="GF16" t="n">
-        <v>0.008721748366951942</v>
+        <v>0.0001066746335709468</v>
       </c>
       <c r="GG16" t="n">
-        <v>0.0182279609143734</v>
+        <v>0.0003594165900722146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.337720383773558e-06</v>
+        <v>0.0001036732573993504</v>
       </c>
       <c r="B17" t="n">
-        <v>1.392189551552292e-05</v>
+        <v>0.001063052914105356</v>
       </c>
       <c r="C17" t="n">
-        <v>5.073557986179367e-06</v>
+        <v>0.0001246274478035048</v>
       </c>
       <c r="D17" t="n">
-        <v>2.900773324654438e-05</v>
+        <v>0.000382688594982028</v>
       </c>
       <c r="E17" t="n">
-        <v>5.160782529856078e-05</v>
+        <v>3.340434705023654e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>5.891793989576399e-05</v>
+        <v>0.001336193992756307</v>
       </c>
       <c r="G17" t="n">
-        <v>8.143049853970297e-06</v>
+        <v>0.0003109711688011885</v>
       </c>
       <c r="H17" t="n">
-        <v>8.336942846653983e-05</v>
+        <v>0.0007145433919504285</v>
       </c>
       <c r="I17" t="n">
-        <v>6.573014161403989e-06</v>
+        <v>0.0002463384007569402</v>
       </c>
       <c r="J17" t="n">
-        <v>8.697770681465045e-08</v>
+        <v>0.0002267982927151024</v>
       </c>
       <c r="K17" t="n">
-        <v>1.498042911407538e-05</v>
+        <v>0.0007996504427865148</v>
       </c>
       <c r="L17" t="n">
-        <v>2.084688276227098e-06</v>
+        <v>0.0002582015586085618</v>
       </c>
       <c r="M17" t="n">
-        <v>1.887272264866624e-05</v>
+        <v>0.0003334557986818254</v>
       </c>
       <c r="N17" t="n">
-        <v>5.551228241529316e-05</v>
+        <v>0.0001205987355206162</v>
       </c>
       <c r="O17" t="n">
-        <v>6.025687980582006e-05</v>
+        <v>0.001109027885831892</v>
       </c>
       <c r="P17" t="n">
-        <v>6.434433089452796e-06</v>
+        <v>0.0002211731625720859</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.338121162727475e-05</v>
+        <v>0.0004945586551912129</v>
       </c>
       <c r="R17" t="n">
-        <v>2.601295364001999e-06</v>
+        <v>0.0001664938754402101</v>
       </c>
       <c r="S17" t="n">
-        <v>4.183588771411451e-06</v>
+        <v>6.042440872988664e-05</v>
       </c>
       <c r="T17" t="n">
-        <v>9.201664852298563e-07</v>
+        <v>2.355009200982749e-05</v>
       </c>
       <c r="U17" t="n">
-        <v>9.186965144181158e-08</v>
+        <v>8.652474207337946e-05</v>
       </c>
       <c r="V17" t="n">
-        <v>6.004178430885077e-06</v>
+        <v>9.547959052724764e-05</v>
       </c>
       <c r="W17" t="n">
-        <v>6.343307177303359e-06</v>
+        <v>0.0002777580812107772</v>
       </c>
       <c r="X17" t="n">
-        <v>7.995960913831368e-06</v>
+        <v>0.0001424487854819745</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.11793314217357e-06</v>
+        <v>0.0001209900001413189</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.564527676440775e-05</v>
+        <v>8.97471618372947e-05</v>
       </c>
       <c r="AA17" t="n">
-        <v>7.719238055869937e-06</v>
+        <v>5.111749123898335e-05</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.028905535349622e-05</v>
+        <v>8.016399078769609e-06</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.689591934147757e-06</v>
+        <v>0.0001260818971786648</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.209603280789452e-06</v>
+        <v>0.0002610941010061651</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.025618530547945e-05</v>
+        <v>0.0001840212935348973</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.976192834263202e-05</v>
+        <v>0.0002413140318822116</v>
       </c>
       <c r="AG17" t="n">
-        <v>6.607590876228642e-06</v>
+        <v>9.018143464345485e-05</v>
       </c>
       <c r="AH17" t="n">
-        <v>2.939295700343791e-05</v>
+        <v>0.0001328183279838413</v>
       </c>
       <c r="AI17" t="n">
-        <v>2.248357759526698e-06</v>
+        <v>7.972898310981691e-05</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.460423391108634e-05</v>
+        <v>8.227398211602122e-05</v>
       </c>
       <c r="AK17" t="n">
-        <v>5.68524410482496e-06</v>
+        <v>0.0001556470815557986</v>
       </c>
       <c r="AL17" t="n">
-        <v>5.130205408931943e-06</v>
+        <v>2.407210922683589e-05</v>
       </c>
       <c r="AM17" t="n">
-        <v>1.480186529079219e-05</v>
+        <v>2.980568388011307e-05</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.418486130613019e-06</v>
+        <v>1.04199607449118e-05</v>
       </c>
       <c r="AO17" t="n">
-        <v>3.888674837071449e-05</v>
+        <v>6.980514444876462e-05</v>
       </c>
       <c r="AP17" t="n">
-        <v>3.59768182534026e-06</v>
+        <v>0.0002045149158220738</v>
       </c>
       <c r="AQ17" t="n">
-        <v>2.548101747379405e-06</v>
+        <v>7.911838110885583e-06</v>
       </c>
       <c r="AR17" t="n">
-        <v>7.645477126061451e-06</v>
+        <v>0.0001192021300084889</v>
       </c>
       <c r="AS17" t="n">
-        <v>3.337339876452461e-06</v>
+        <v>6.478209979832172e-05</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.396835250488948e-05</v>
+        <v>0.0001734847610350698</v>
       </c>
       <c r="AU17" t="n">
-        <v>2.825612318702042e-05</v>
+        <v>0.0006968794041313231</v>
       </c>
       <c r="AV17" t="n">
-        <v>8.926244845497422e-07</v>
+        <v>4.602551780408248e-05</v>
       </c>
       <c r="AW17" t="n">
-        <v>7.963815733091906e-06</v>
+        <v>0.0003979591419920325</v>
       </c>
       <c r="AX17" t="n">
-        <v>9.577899618307129e-06</v>
+        <v>0.0004276700201444328</v>
       </c>
       <c r="AY17" t="n">
-        <v>3.481677049421705e-05</v>
+        <v>0.0007576015777885914</v>
       </c>
       <c r="AZ17" t="n">
-        <v>9.451134246774018e-06</v>
+        <v>0.0001649060286581516</v>
       </c>
       <c r="BA17" t="n">
-        <v>3.503289917716756e-05</v>
+        <v>0.0001481575745856389</v>
       </c>
       <c r="BB17" t="n">
-        <v>9.313087502960116e-06</v>
+        <v>0.0001248513581231236</v>
       </c>
       <c r="BC17" t="n">
-        <v>5.262779268377926e-06</v>
+        <v>9.595701703801751e-05</v>
       </c>
       <c r="BD17" t="n">
-        <v>4.08356072512106e-06</v>
+        <v>0.0002756783505901694</v>
       </c>
       <c r="BE17" t="n">
-        <v>3.552969474185375e-06</v>
+        <v>0.000227639771765098</v>
       </c>
       <c r="BF17" t="n">
-        <v>2.300904088770039e-05</v>
+        <v>7.86119926488027e-06</v>
       </c>
       <c r="BG17" t="n">
-        <v>3.085513526457362e-05</v>
+        <v>6.385124288499355e-05</v>
       </c>
       <c r="BH17" t="n">
-        <v>1.089682336896658e-05</v>
+        <v>0.0003022102755494416</v>
       </c>
       <c r="BI17" t="n">
-        <v>2.031065014307387e-05</v>
+        <v>0.000190742954146117</v>
       </c>
       <c r="BJ17" t="n">
-        <v>1.190231068903813e-05</v>
+        <v>8.768741099629551e-05</v>
       </c>
       <c r="BK17" t="n">
-        <v>3.955149622925092e-06</v>
+        <v>7.419962639687583e-05</v>
       </c>
       <c r="BL17" t="n">
-        <v>3.365240672792424e-06</v>
+        <v>2.267685340484604e-05</v>
       </c>
       <c r="BM17" t="n">
-        <v>1.344211977993837e-05</v>
+        <v>0.0003264068509452045</v>
       </c>
       <c r="BN17" t="n">
-        <v>5.313078872859478e-06</v>
+        <v>5.676376531482674e-05</v>
       </c>
       <c r="BO17" t="n">
-        <v>3.862771791318664e-08</v>
+        <v>0.0001240966230398044</v>
       </c>
       <c r="BP17" t="n">
-        <v>6.37911443845951e-06</v>
+        <v>1.28177744045388e-05</v>
       </c>
       <c r="BQ17" t="n">
-        <v>2.541878529882524e-06</v>
+        <v>1.54977387865074e-05</v>
       </c>
       <c r="BR17" t="n">
-        <v>3.074951382586733e-05</v>
+        <v>8.947990136221051e-05</v>
       </c>
       <c r="BS17" t="n">
-        <v>7.473615369235631e-06</v>
+        <v>5.627906284644268e-05</v>
       </c>
       <c r="BT17" t="n">
-        <v>1.677958891832532e-07</v>
+        <v>3.603059303713962e-05</v>
       </c>
       <c r="BU17" t="n">
-        <v>4.868464657192817e-06</v>
+        <v>7.209582690848038e-05</v>
       </c>
       <c r="BV17" t="n">
-        <v>1.220085437125817e-07</v>
+        <v>0.0003314850619062781</v>
       </c>
       <c r="BW17" t="n">
-        <v>2.673024027899373e-06</v>
+        <v>3.159724292345345e-05</v>
       </c>
       <c r="BX17" t="n">
-        <v>3.173927325406112e-06</v>
+        <v>0.000165984543855302</v>
       </c>
       <c r="BY17" t="n">
-        <v>1.061673629010329e-06</v>
+        <v>0.0001962981768883765</v>
       </c>
       <c r="BZ17" t="n">
-        <v>2.16592652577674e-05</v>
+        <v>0.0004350215895101428</v>
       </c>
       <c r="CA17" t="n">
-        <v>1.116243947762996e-05</v>
+        <v>0.0001303118333453313</v>
       </c>
       <c r="CB17" t="n">
-        <v>3.556583760655485e-05</v>
+        <v>5.3953226597514e-05</v>
       </c>
       <c r="CC17" t="n">
-        <v>8.829959369904827e-06</v>
+        <v>8.50030301080551e-06</v>
       </c>
       <c r="CD17" t="n">
-        <v>4.554985935101286e-06</v>
+        <v>2.898831189668272e-05</v>
       </c>
       <c r="CE17" t="n">
-        <v>1.670731535341474e-06</v>
+        <v>0.0001044682139763609</v>
       </c>
       <c r="CF17" t="n">
-        <v>1.414717644365737e-06</v>
+        <v>4.282861846149899e-05</v>
       </c>
       <c r="CG17" t="n">
-        <v>6.540531103382818e-06</v>
+        <v>1.945902295119595e-05</v>
       </c>
       <c r="CH17" t="n">
-        <v>1.10634000520804e-05</v>
+        <v>3.130446202703752e-06</v>
       </c>
       <c r="CI17" t="n">
-        <v>1.171099120256258e-05</v>
+        <v>0.0002268482639919966</v>
       </c>
       <c r="CJ17" t="n">
-        <v>3.214741894908002e-08</v>
+        <v>2.150415457435884e-05</v>
       </c>
       <c r="CK17" t="n">
-        <v>1.64499033417087e-05</v>
+        <v>0.0001025079036480747</v>
       </c>
       <c r="CL17" t="n">
-        <v>9.184531108985539e-07</v>
+        <v>2.029819188464899e-05</v>
       </c>
       <c r="CM17" t="n">
-        <v>1.889399936771952e-05</v>
+        <v>0.0001654248626437038</v>
       </c>
       <c r="CN17" t="n">
-        <v>9.426175893167965e-07</v>
+        <v>0.0001007713362923823</v>
       </c>
       <c r="CO17" t="n">
-        <v>5.002867055736715e-06</v>
+        <v>3.180278145009652e-05</v>
       </c>
       <c r="CP17" t="n">
-        <v>8.476867151330225e-06</v>
+        <v>5.490457988344133e-05</v>
       </c>
       <c r="CQ17" t="n">
-        <v>7.042479410301894e-06</v>
+        <v>0.000291357486275956</v>
       </c>
       <c r="CR17" t="n">
-        <v>3.199587354174582e-06</v>
+        <v>3.384777664905414e-05</v>
       </c>
       <c r="CS17" t="n">
-        <v>4.122145128349075e-06</v>
+        <v>3.55985393980518e-05</v>
       </c>
       <c r="CT17" t="n">
-        <v>1.561228782520629e-05</v>
+        <v>0.0002171778469346464</v>
       </c>
       <c r="CU17" t="n">
-        <v>1.565586535434704e-05</v>
+        <v>3.573133653844707e-06</v>
       </c>
       <c r="CV17" t="n">
-        <v>6.656729055976029e-06</v>
+        <v>1.238832555827685e-05</v>
       </c>
       <c r="CW17" t="n">
-        <v>4.866153176408261e-06</v>
+        <v>8.310877456096932e-05</v>
       </c>
       <c r="CX17" t="n">
-        <v>1.832890575315105e-06</v>
+        <v>2.592895179986954e-05</v>
       </c>
       <c r="CY17" t="n">
-        <v>5.389152647694573e-06</v>
+        <v>6.025476614013314e-05</v>
       </c>
       <c r="CZ17" t="n">
-        <v>7.514586286561098e-06</v>
+        <v>3.196529360138811e-05</v>
       </c>
       <c r="DA17" t="n">
-        <v>1.143657755164895e-05</v>
+        <v>0.0002161586162401363</v>
       </c>
       <c r="DB17" t="n">
-        <v>1.068095798473223e-06</v>
+        <v>1.545994746265933e-05</v>
       </c>
       <c r="DC17" t="n">
-        <v>2.196038258261979e-05</v>
+        <v>0.0001227227912750095</v>
       </c>
       <c r="DD17" t="n">
-        <v>3.133109885311569e-06</v>
+        <v>9.246374247595668e-05</v>
       </c>
       <c r="DE17" t="n">
-        <v>3.400059722480364e-05</v>
+        <v>3.808482870226726e-05</v>
       </c>
       <c r="DF17" t="n">
-        <v>3.084553827648051e-05</v>
+        <v>0.0002409126318525523</v>
       </c>
       <c r="DG17" t="n">
-        <v>3.886099420924438e-06</v>
+        <v>6.376889359671623e-06</v>
       </c>
       <c r="DH17" t="n">
-        <v>1.442726215827861e-06</v>
+        <v>0.000401507830247283</v>
       </c>
       <c r="DI17" t="n">
-        <v>8.439014891337138e-06</v>
+        <v>0.0001769577356753871</v>
       </c>
       <c r="DJ17" t="n">
-        <v>2.650183660080074e-06</v>
+        <v>2.21608133870177e-05</v>
       </c>
       <c r="DK17" t="n">
-        <v>5.104022420709953e-06</v>
+        <v>0.0001082062226487324</v>
       </c>
       <c r="DL17" t="n">
-        <v>2.123390913766343e-06</v>
+        <v>0.0003874582471325994</v>
       </c>
       <c r="DM17" t="n">
-        <v>1.140506537922192e-05</v>
+        <v>0.0001302761666011065</v>
       </c>
       <c r="DN17" t="n">
-        <v>6.109346941229887e-06</v>
+        <v>4.784475822816603e-05</v>
       </c>
       <c r="DO17" t="n">
-        <v>6.089032012823736e-06</v>
+        <v>3.878783900290728e-05</v>
       </c>
       <c r="DP17" t="n">
-        <v>2.503459654690232e-06</v>
+        <v>8.277745655504987e-05</v>
       </c>
       <c r="DQ17" t="n">
-        <v>2.467940021233517e-06</v>
+        <v>0.0001194502401631325</v>
       </c>
       <c r="DR17" t="n">
-        <v>6.07042784395162e-06</v>
+        <v>7.297984848264605e-05</v>
       </c>
       <c r="DS17" t="n">
-        <v>1.376533509755973e-05</v>
+        <v>1.789834186638473e-06</v>
       </c>
       <c r="DT17" t="n">
-        <v>1.168328071798896e-05</v>
+        <v>0.0002312635042471811</v>
       </c>
       <c r="DU17" t="n">
-        <v>8.966684617917053e-06</v>
+        <v>2.62941794062499e-05</v>
       </c>
       <c r="DV17" t="n">
-        <v>3.871769877150655e-06</v>
+        <v>5.276582669466734e-05</v>
       </c>
       <c r="DW17" t="n">
-        <v>9.57279098656727e-06</v>
+        <v>4.15207032347098e-05</v>
       </c>
       <c r="DX17" t="n">
-        <v>1.185060000352678e-06</v>
+        <v>5.00440364703536e-05</v>
       </c>
       <c r="DY17" t="n">
-        <v>3.672910679597408e-06</v>
+        <v>6.194184243213385e-05</v>
       </c>
       <c r="DZ17" t="n">
-        <v>4.385308784549125e-06</v>
+        <v>4.71311759611126e-05</v>
       </c>
       <c r="EA17" t="n">
-        <v>8.10504388937261e-06</v>
+        <v>0.0001118519576266408</v>
       </c>
       <c r="EB17" t="n">
-        <v>2.432277597108623e-06</v>
+        <v>7.206317241070792e-05</v>
       </c>
       <c r="EC17" t="n">
-        <v>1.881879597931402e-06</v>
+        <v>0.0001070154685294256</v>
       </c>
       <c r="ED17" t="n">
-        <v>5.979324669169728e-06</v>
+        <v>0.0001455165474908426</v>
       </c>
       <c r="EE17" t="n">
-        <v>5.394134859670885e-06</v>
+        <v>3.59794867108576e-05</v>
       </c>
       <c r="EF17" t="n">
-        <v>2.301819768035784e-05</v>
+        <v>1.991396493394859e-05</v>
       </c>
       <c r="EG17" t="n">
-        <v>3.528801698848838e-06</v>
+        <v>4.338128564995714e-05</v>
       </c>
       <c r="EH17" t="n">
-        <v>3.424845772315166e-06</v>
+        <v>2.789636164379772e-05</v>
       </c>
       <c r="EI17" t="n">
-        <v>1.452671676815953e-05</v>
+        <v>3.34047363139689e-05</v>
       </c>
       <c r="EJ17" t="n">
-        <v>1.524774961580988e-05</v>
+        <v>1.313005122938193e-05</v>
       </c>
       <c r="EK17" t="n">
-        <v>2.487072379153688e-07</v>
+        <v>0.0001995357888517901</v>
       </c>
       <c r="EL17" t="n">
-        <v>3.061266852455446e-06</v>
+        <v>3.451731754466891e-05</v>
       </c>
       <c r="EM17" t="n">
-        <v>2.240108369733207e-05</v>
+        <v>6.098051017033868e-06</v>
       </c>
       <c r="EN17" t="n">
-        <v>3.194603323208867e-06</v>
+        <v>4.699236524174921e-05</v>
       </c>
       <c r="EO17" t="n">
-        <v>1.332740339421434e-06</v>
+        <v>5.91371936025098e-05</v>
       </c>
       <c r="EP17" t="n">
-        <v>6.369969469233183e-06</v>
+        <v>3.675971311167814e-05</v>
       </c>
       <c r="EQ17" t="n">
-        <v>3.718286734510912e-06</v>
+        <v>9.471019438933581e-05</v>
       </c>
       <c r="ER17" t="n">
-        <v>4.389753485156689e-06</v>
+        <v>3.555911098374054e-05</v>
       </c>
       <c r="ES17" t="n">
-        <v>8.317725587403402e-06</v>
+        <v>1.301452721236274e-05</v>
       </c>
       <c r="ET17" t="n">
-        <v>5.538186997000594e-06</v>
+        <v>9.33281407924369e-05</v>
       </c>
       <c r="EU17" t="n">
-        <v>6.138604476291221e-06</v>
+        <v>4.85220443806611e-05</v>
       </c>
       <c r="EV17" t="n">
-        <v>2.316459358553402e-06</v>
+        <v>0.0003350286278873682</v>
       </c>
       <c r="EW17" t="n">
-        <v>2.422153556835838e-06</v>
+        <v>0.0002159519935958087</v>
       </c>
       <c r="EX17" t="n">
-        <v>7.058514711388852e-06</v>
+        <v>1.231807709700661e-05</v>
       </c>
       <c r="EY17" t="n">
-        <v>6.60436307953205e-06</v>
+        <v>5.737557876273058e-05</v>
       </c>
       <c r="EZ17" t="n">
-        <v>3.077190058320411e-06</v>
+        <v>8.751863788347691e-06</v>
       </c>
       <c r="FA17" t="n">
-        <v>8.915080798033159e-06</v>
+        <v>2.819784822349902e-05</v>
       </c>
       <c r="FB17" t="n">
-        <v>1.232070553669473e-05</v>
+        <v>1.783106927177869e-05</v>
       </c>
       <c r="FC17" t="n">
-        <v>1.21954162750626e-05</v>
+        <v>0.0001996620703721419</v>
       </c>
       <c r="FD17" t="n">
-        <v>1.992503257497447e-06</v>
+        <v>7.214923243736848e-05</v>
       </c>
       <c r="FE17" t="n">
-        <v>2.406291969236918e-05</v>
+        <v>0.000105859333416447</v>
       </c>
       <c r="FF17" t="n">
-        <v>3.655094815258053e-06</v>
+        <v>6.035608384991065e-05</v>
       </c>
       <c r="FG17" t="n">
-        <v>3.429390517339925e-06</v>
+        <v>4.145609273109585e-05</v>
       </c>
       <c r="FH17" t="n">
-        <v>2.18240643334866e-06</v>
+        <v>9.720709203975275e-05</v>
       </c>
       <c r="FI17" t="n">
-        <v>6.476610906247515e-06</v>
+        <v>0.0001559396769152954</v>
       </c>
       <c r="FJ17" t="n">
-        <v>2.361602810196928e-06</v>
+        <v>0.0001475892495363951</v>
       </c>
       <c r="FK17" t="n">
-        <v>8.640143278171308e-06</v>
+        <v>6.74084949423559e-05</v>
       </c>
       <c r="FL17" t="n">
-        <v>4.625662313628709e-06</v>
+        <v>0.000193270345334895</v>
       </c>
       <c r="FM17" t="n">
-        <v>3.555707280611387e-06</v>
+        <v>5.196077836444601e-06</v>
       </c>
       <c r="FN17" t="n">
-        <v>4.764890036312863e-06</v>
+        <v>0.0001134593330789357</v>
       </c>
       <c r="FO17" t="n">
-        <v>2.280912895002984e-06</v>
+        <v>0.0002120151766575873</v>
       </c>
       <c r="FP17" t="n">
-        <v>1.765605338732712e-05</v>
+        <v>0.0001774091215338558</v>
       </c>
       <c r="FQ17" t="n">
-        <v>4.044837623951025e-06</v>
+        <v>0.0002576988190412521</v>
       </c>
       <c r="FR17" t="n">
-        <v>3.861414370476268e-06</v>
+        <v>2.336855504836421e-05</v>
       </c>
       <c r="FS17" t="n">
-        <v>9.483372195973061e-06</v>
+        <v>0.0001201653576572426</v>
       </c>
       <c r="FT17" t="n">
-        <v>5.186460384720704e-06</v>
+        <v>3.297943476354703e-05</v>
       </c>
       <c r="FU17" t="n">
-        <v>1.507202432549093e-05</v>
+        <v>0.0003044089826289564</v>
       </c>
       <c r="FV17" t="n">
-        <v>5.990189492877107e-06</v>
+        <v>0.0001214212315971963</v>
       </c>
       <c r="FW17" t="n">
-        <v>2.37514414038742e-05</v>
+        <v>0.0001234320370713249</v>
       </c>
       <c r="FX17" t="n">
-        <v>3.855274371744599e-06</v>
+        <v>0.0002298981999047101</v>
       </c>
       <c r="FY17" t="n">
-        <v>6.174077043397119e-06</v>
+        <v>0.0001087659475160763</v>
       </c>
       <c r="FZ17" t="n">
-        <v>1.348117962152173e-06</v>
+        <v>7.53893400542438e-05</v>
       </c>
       <c r="GA17" t="n">
-        <v>1.592248963788734e-06</v>
+        <v>6.643750384682789e-05</v>
       </c>
       <c r="GB17" t="n">
-        <v>8.394770247832639e-07</v>
+        <v>6.670139555353671e-06</v>
       </c>
       <c r="GC17" t="n">
-        <v>4.441725650394801e-06</v>
+        <v>0.0005807994166389108</v>
       </c>
       <c r="GD17" t="n">
-        <v>2.739699539233698e-06</v>
+        <v>0.0001064730240614153</v>
       </c>
       <c r="GE17" t="n">
-        <v>7.512372576456983e-06</v>
+        <v>0.0001670782367000356</v>
       </c>
       <c r="GF17" t="n">
-        <v>8.257681656687055e-06</v>
+        <v>3.443622335908003e-05</v>
       </c>
       <c r="GG17" t="n">
-        <v>7.57889574742876e-06</v>
+        <v>0.0001710406795609742</v>
       </c>
     </row>
   </sheetData>
